--- a/excel/results.xlsx
+++ b/excel/results.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,22 +507,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Телеграм бот ищущий посты по ключевым словам и сводящий в один</t>
+          <t>Бот для автоматического начисления валюты</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Требуется написать бота который в заданное время должен публиковать пост в канал. Пост содержит оформленный список тг каналов со ссылками на спарсенные с этих каналов посты. Посты определенные, выходящие раз в день, бот должен при выходе постов в заданных каналах проверять по ключевым словам или брать последний пост (два варианта) и брать нужный.   1. Например в 10 утра должен выйти пост. 2. Бот проверяет каналы из списка на посты по заданным параметрам. 3. Бот выкладывает готовый пост.  Пост: – Вчерашние посты помечаются звездочкой – Если не постов не было больше двух дней то данный канал не добавлять, до выхода нужного поста. – Посты со звездочкой  группировать по алфавиту ниже свежих постов по алфавиту. – Параметр “Группа”, в котором выбирается категория в которой должен выходить данный канал – Возможность добавлять/удалять и переименовывать категории   Настройки: Для времени выхода поста, оформления поста, добавления новых каналов на мониторинг и параметров отбора постов должны быть настройки – Добавление канала и ключевые слова для поиска или просто последний пост – Требуется возможность редактировать название каналов и их очередность в посте. – Опцию “Пост за прошлое число не старый”(типа того). Для того чтобы бот не добавлял звездочку “*” к посту за вчерашний день, потому что это нормально. Например добавить чекбокс, если галочка стоит, то бот не ставит звездочку к вчерашнему посту, если не стоит, то ставит.  Например:  Заголовок  Группа 1 Пост с канала1 Пост с канала2  Группа 2 Пост с канала3 Пост с канала4  и т.д.  Подпись</t>
+          <t>Нужно сделать серверного бота для этой игры durak.rstgames.com/play/, который будет проигрывать определённое кол-во игровой валюты игроку.  Приложено ТЗ</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>5000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>+ 1</t>
+          <t>+ 3</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -542,39 +542,39 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>7 лет и 8 месяцев</t>
+          <t>3 года и 3 месяца</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 23:06</t>
+          <t>12.08.2022 19:29</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Разработка бота телеграм</t>
+          <t>Специалист по Yclients</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>1. Создать бот – администратор.  2. Комментарии включить (пример) . Не как у бота в телеграме (commentsbot)  3. Автопостинг в определенном формате в определенное время (картинка внизу, текст вверху, добавление к тексту сразу много картинок и чтоб они были внизу). 4. Ссылки на другие посты из телеграма (ранее нами выложенные)  внутри текста поста.</t>
+          <t>У нас много филиалов в YCLIENTS, изначально не правильно начали вести его, сейчас из-за этого тянется много ошибок, не корректна аналитика и тп. Задача: все это привести в порядок, чтобы все велось корректно, от самих записей и продаж абонемента до списания расходников и аналитики Ниша: косметология, лазерная эпиляция.  Оплата по договорённости</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>3000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>12.08.2022</t>
+          <t>по договоренности</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -589,29 +589,29 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>меньше месяца</t>
+          <t>2 года и 4 месяца</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 21:58</t>
+          <t>12.08.2022 19:27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>React Native разработчик на проект</t>
+          <t>Нужно сделать бота-вилку в телеграм, который будет парсить прогнозы матчей в Германских Б/К.</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Сразу пишите свой ожидаемы уровень оплаты в месяц и за час работы.  Опыт js разработки от 1 года, Понимание принципов работы библиотеки React, Понимание принципов работы React Native приложений, знание Redux, MobX, или других библиотек связанных со стейт менеджментом Будет плюсом знание Redux Toolkit Знания и практика адаптивной и кроссбраузерной верстки; Умение разбираться в чужом коде; Умение работать в команде; Опыт Github, CI, RestAPI</t>
+          <t>Функционал бота:   Бот должен парсить следующие сайты:   www.bet365.de/#/HO/   www.888sport.de/   www.bwin.de/de/labelhost/...   www.interwetten.de/de/spo...   www.bet-at-home.de/de/acc...   www.unibet.de/betting/spo...   sports.tipico.de/de/myBet...   sports.betway.de/de/sport...   www.bildbet.de/   www.winamax.de/account/ac...   www.bet3000.de/home?aspxe...   Функция: Парсинг  Бот должен собирать информацию о матчах но определенным критериям на определенных сайтах германских Б/К.   Парсинг должен происходит по следующим видам спорта: Теннис, настольный тенис, футбол, хоккей, баскетбол. Парсится должны матчи этих видов спорта, коэфициент должен парсится 2+. Во время парсинга матчей с коэфициентом 2+, бот должен сравнить исходы матчей и выдать исходы с коэфициентом 2+ в конкретном спарсенном матче.   Пример: Возьмём один матч , в одной конторе на исход забьют оба 2.2 коэффициент, в другой конторе на этот же матч что обе не забьют гол коэффициент составляет 2.5.   Функция: Отправка сообщений. Бот должен отправлять результаты парсинга в виде определенного шаблона сообщения в приватный или приватные каналы.   Функция: Продажа подписки. Бот должен выдавать приватные ссылки на приватные отдельные каналы. После оплаты тарифа пользователю выдается одноразовая ссылка на приватный канал. После того, как подписка заканчивается, бот должен удалять пользователя из приватного канала (где он по идеи должен быть назначен админом).   Функция: Оплата. Оплата в боте должна совершаться и обрабатываться вручну. То есть заявки на оплату должны падать в отдельный чат, или же админку бота, и владельцы бота уже подтверждают оплату, или не подтверждают в ручном режиме. Оплата совершается на карту Европейского банка N26. Цена оплаты тарифа: 100 евро.   Функция: Отображение профиля пользователя. Его баланс. Купленные подписки.   Функция: Админка. Администраторская панель с функциями: рассылка по базе пользователей бота, блокировка пользователя по его идентифицированным данным (id, username), измение баланса пользователя.   Функция: Фильтрация игр, прием, или отклонение игр администраторами. Бот присылает админам в закрытый канал игры, которые потом будут отправляться пользователям по подписке, и игры нужно фильтровать администраторам вручную. В закрытый канал приходят сообщения с играми, которые парсит бот и администраторы имеют несколько кнопок для нажатия, чтобы отклонить исход, и 4 кнопки для отправки в 4 разных группы исходов. Человек нажимает на кнопку 2 и отправляется исход в группу номер 2. По такому принципу работают и остальные 3 кнопки. Суммарно с отклонением исхода — 5 кнопок.   Будут еще некоторые ньюансы, по типу подсчета итоговых процентов.  Я не хочу тратить свое время и силы, перед тем, как предлагать мне что-либо, прошу вас, убедитесь, что вы справитесь с поставленной задачей. Спасибо.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>+ 5</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -636,34 +636,34 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2 года и 1 месяц</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 21:25</t>
+          <t>12.08.2022 19:16</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Помощь с подключением к ПК принтера vkp 80ii</t>
+          <t>Восстановление дисковой системы ext4 на виртуальной машине VM Ware Workstation</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Нужна помощь с подключением VKP 80II к ПК на Windows 10 x64 Самое главное чтобы работать можно было через node.js. У меня стоит модуль serialport Если serialportподключится – дальше я сам Спасибо за ответ</t>
+          <t>Имеется выделенный сервер, на котором установлена Windows Server 2016 Standard X64 На нём установлена среда VM Ware Workstation, в которой развёрнута виртуальная машина Bitrix 24.  На указанный сервер, была произведена атака, в результате которой злоумышленники получили доступ к серверу и зашифровали все данные, которые на нём находились, в том числе и диски данной виртуальной машины.  После переписки с злоумышленниками, был получен пароль и скрипт на дешифровку файлов. После выполнения всех инструкций по дешифровке файлов, была произведена попытка запуска виртуальной машины битрикс24. Но безуспешно. Часть файлов осталось зашифрованными.  После очередных попыток, была успешно произведена дешифровка дисков виртуальной машины. К сожалению, основной файл дескриптора был изменён. Пришлось вручную высчитывать значения Цилиндров и сумму блоков каждого диска.  После того, как были высчитаны значения каждого дисков и общая сумма цилиндров – система не запустилась. При попытке восстановления системы с использованием livecd и команд testdisk и fsck, раздел (/dev/sda3), на котором установлена файловая система ext4 и находятся необходимые файлы подвергается полному затиранию и изменению.  Все возможные попытки восстановить раздел не привели к необходимому результату. Нам нужен специалист, который сможет восстановить данный раздел для запуска системы полностью, либо восстановить раздел для возможности копирования файлов восcтановления bitrix24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,44 +683,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5 лет</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 20:52</t>
+          <t>12.08.2022 19:15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Доработка цен в 1С</t>
+          <t>Отправка SMS при помощи PHP</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Общая цель и смысл:  Необходимо чтобы в 1С было 4 цены, 3 из которых считались автоматически по формуле, далее эти цены выгружались на сайт.  Задание:  в 1С теперь мы должны заполнять только одну цену, это будет у нас базовая цена.  От этой цены должны считаться еще 3 цены  Розничная цена + 50% к базовой . Базовая цена – (та цена которую будем заполнять) - 5% от базовой цены. - 8% от базовой цены.  Данные 4 цены должны сразу проставляться в 1С по формуле.  Подготовить данные цены для реализации функционала на сайте.  Розничная цена – данный тип цен будет срабатывать до суммы заказа до 20 000 руб. Базовая цена -  данный тип цен будет срабатывать от 20 000 руб. до 40 000 руб. Цена со скидкой -5% данный тип цен будет срабатывать от 40 000 руб. до 100 000 руб. Цена со скидкой -8% данный тип цен будет срабатывать от 100 000 руб. до 200 000 руб. (но по функционалу данную цену мы будем использовать до любой суммы, это только внешний вид будет до данной суммы)</t>
+          <t>Настроить свой сервер, чтобы ограничений по отправке не было А также подробно что именно хочу скину при отклике. По цене договоримся!</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15 000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21.08.2022</t>
+          <t>по договоренности</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>+ 1</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -730,29 +730,29 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2 года и 4 месяца</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 20:22</t>
+          <t>12.08.2022 19:07</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Нужна помощь со скриптом для HIVE OS</t>
+          <t>Разработать web-сервис для автозагрузки на Авито</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Я пишу некоторый код для Hive на питоне и у меня есть необходимость управлять состоянием майнера (вкл, выкл, рестарт). В хайве есть необходимая команда miner restart – дак вот, из питона команда не отрабатывает или просто майнер ложится, я сделал простенький sh в котором прописал те же готовые команды и вызываю его  – эффект тот же. Да вот еще, если я этот файл или питоновский скрипт запускаю из консоли, все отработает как надо. Но если это все запускается через systemctl – результат один, майнер просто отваливается. Ваша задача: написать скрипт который будет принимать на входе ( start, stop, restart) и коретно их выполнять.  ( еще раз уточню, с консоли и у меня все работает, с автозагрузкой нет)</t>
+          <t>Нужен сервис, который поможет опубликовать и массово редактировать объявления на Авито через официальный XML фид.  Для примера описываю ситуацию использования сервиса: Виктор торгует на авито автомобильными прицепами. У него оживленная ниша с большим количеством продавцов. Для того, чтобы конкурировать с ними и занимать большое кол-во мест в поисковой выдаче авито по интересующих его запросам, Виктор купил для своего аккаунта пакет объявлений в количестве 2500 штук в одной категории и публикует ежедневно около 80 новых объявлений.  Для того чтобы не заходить в авито и в ручном режиме не публиковать объявления, Виктору нужен инструмент, в котором он может подготовить контент для объявлений (заголовки, тексты, цены, картинки) и они будут публиковаться автоматически в течение месяца по составленному графику. Виктор тестирует разные подходы к написанию текстов и оформлению картинок, а потом хочет массово внедрить эти улучшения в текстах и картинках с одного тестируемого объявления на остальные, уже ранее опубликованные или подготовленные к публикации.  Еще Виктору нужно отличать разные модели прицепов, чтобы проводить массовое редактирование объявлений, которых объединяет общий тег или ярлык.  По сути это веб интерфейс, замена стандартному интерфейсу Авито, более удобный для работы с большим кол-вом объявлений, который генерирует фид-файл, который доступен по ссылке на нашем сервере.  Для первого релиза сервиса нужна дополнительные функции (одна или несколько), которые будут выбраны обоюдно в обсуждении с исполнителем, из следующего перечня:  - Назначение одинаковой “метки” или “ярлыка” нескольким объявлениям. - Выделить и копировать объявление. - Выделить и удалить одно или группу объявлений. - Возможность фильтровать и выводить список объявлений по любому из параметров или одновременно по нескольким. - Группировка и сортировка. - Возможность оставлять комментарий в специально поле к каждому объявлению - Массовое выделение и/или снятие выделения. - Массовое редактирование – замена значения выбранного поля у всех объявлений в выбранной группе. - Поиск и автозамена части текста в нужных полях. - Можно перетаскивать мышкой и менять порядок столбцов - Можно скрывать или отображать нужные столбцы - Функция равномерного распределения времени и даты публикации выбранной группы объявлений на выбранный период. - Замена массовая фотографии с нужным номером в группе объявлений. Добавление или замена. - Текстовый редактор с быстрым форматированием текста через кнопки: абзац, список, жирный шрифт, прописной. - В режиме редактирования конкретного объявления видны превью картинок объявления и можно перетаскиванием мышки менять порядок картинок. - Технические характеристики для уникализации для группы объявлений. Наименование переменной и возможные значения. - Копирование созданных характеристик группы в пресеты для использования в других группах. - Переключение в одном аккаунте пользователя сервиса между разными аккаунтами авито, создания для каждого аккаунта авито отдельного xml фида.  На скриншотах пример существующего близкого воплощения задачи. Сервисы с похожим функционалом: xmlfeed.ru/ lk.b2b-help.ru/ leomik.market/ lk.agishev-autoz.ru/</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>+ 2</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -777,29 +777,29 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9 лет и 11 месяцев</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 20:00</t>
+          <t>12.08.2022 18:42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Внедрение плеера со сторонней музыкой/клипами со сторонним API.</t>
+          <t>ТЗ по оптимизации хедера и футера сайта – tdpv.ru</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Внедрение плеера со сторонней музыкой/клипами со сторонним API.  По сути нужен пример для внедрения себе на сайт следующих функций: - поиск музыки/клипов через стороннее АПИ (только по музыкальным клипам и трекам) - управление запуском на клиенте (play, stop, запуск с определенного времени трека) - получение данных трека/клипа: время, название, превью (для видео)  Для использования взять api youtube (если есть альтернативы, то сначала напишите какие)  Так как в конечном счете это будет внедряться на сайт, то от задачи мне нужен рабочий пример (без оформления) и потом помощь при внедрении (до момента запуска апи у себя, а не до конечного внешнего доведения)  Для работы нужно использовать: PHP, Js, HTML (только для обозначение. красота не нужна вообще в данной задаче)  PS: мне нужно в итоге не то, как вставить просто плеер Youtube на сайт, а как у себя полноценно организовать поиск и запуск (запуск своими элементами на js, html, css) музыки и видео (только по теме музыкальных треков и клипов)</t>
+          <t>Админка в Битриксе. Ссылка на файл с подробным ТЗ docs.google.com/document/...</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>+ 2</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -824,29 +824,29 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1 год и 8 месяцев</t>
+          <t>1 месяц</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 19:39</t>
+          <t>12.08.2022 18:42</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Написать и оформить ТЗ для обработки 1С</t>
+          <t>Поиск ошибки и устранение сайт Битрикс</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Планируется заказать доработку в 1С 8.3 для импорта 4-5 документов в формате XLS, одного документа в формате TXT, последующего формирования печатных форм СчФ, СчОпл, Акты, Акты сверок. Необходимо написать и оформить техническое задание для разработчиков, с целью оценки работ и формирования коммерческого предложения. Прилагаю пример одного из импортируемых файлов. Всю информацию (файлы, эскизы, наброски текста) предоставлю дополнительно Исполнителю. Прошу сообщать примерную стоимость работ и сроки.</t>
+          <t>После установки скрипта в корзину и карточку товара, сайт начал в момент перехода по категориям иногда подвисать (белая страница), помогает неоднократный рефреш страницы  Сброс кеша сайта не помогает, редактирование htaccses и php приводит к падению сайта полностью. Резервная копия создается ежедневно, срок хранения каждой копии одна неделя.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>+ 51</t>
+          <t>+ 12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -871,29 +871,29 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12 лет и 6 месяцев</t>
+          <t>9 лет и 7 месяцев</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 19:35</t>
+          <t>12.08.2022 18:42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Создать бот, чтобы он собирал заявки с авито и с сайтов</t>
+          <t>Нужен бот для сбора информации на Kufar(avito для беларуси)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Необходимо создать бот, чтобы он мог собирать заявки от клиентов с сайта Авито и с одностраничных сайтов. Все поступающие заявки нужно соединить с гугл таблицей, чтобы они все фиксировались в одном документе для их обработки. Мы пока не можем предположить, как это можно сделать, но примерно понимание и примеры то что это создают есть. Есть даже то, что робот отвечает определенными скринами и ведет клиента, чтобы он оставил свой контактный номер или информацию, для того, чтобы с ним связался менеджер.</t>
+          <t>Нужна программа которая будет собирать информацию по заданной ссылке (В программе должна быть возможность добавлять и редактировать ссылки) и отсылать новые объявления в телеграмм, важно что бы все это дело работало максимально быстро и отсылало новые объявления с минимальной задержкой. Сколько это может стоить денег не представляю, поэтому предлагайте свою стоимость.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -918,29 +918,29 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8 месяцев</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 19:16</t>
+          <t>12.08.2022 18:42</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Нужен программист JS</t>
+          <t>Правки и доработки на Bitrix, большой проект</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Здравствуйте! Нужен программист node js/js для доработки фукции в телеграмм-боте. Требования - опыт в написании телеграм-ботов - умение читать чужой код - оперативность в коммуникации Сроки не горящие....не спеша можно делать) Как дополнение к Вашей основной деятельности. Ссылка на задание disk.yandex.ru/d/sqA9kuIL... Подробно о функции расскажу в переписке. Жду Ваши отклики Спасибо Всем заинтересовавшимся) С уважением Андрей</t>
+          <t>Есть большой проект, нужно сделать много правок и доработок по ТЗ. На эти правки нужен программист с большим опытом на Bitrix, знание АСПРО будет преимуществом. Около 500 различных правок</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>+ 6</t>
+          <t>+ 46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -965,34 +965,34 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9 лет и 11 месяцев</t>
+          <t>9 лет и 5 месяцев</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 19:12</t>
+          <t>12.08.2022 18:09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Требуется специалист с опытом работы с платформой Hyperledger fabric</t>
+          <t>Систему аналитики еком конкурентов</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Добрый день, меня зовут Евгений, я работаю в группе ИТ-компаний занимаюсь рекрутингом. Сейчас требуется специалист с опытом работы с платформой Hyperledger fabric. Возможно вы и есть такой специалист или же в вашем окружении есть такие ребята, кто ищет работу, буду вам признателен за помощь😌</t>
+          <t>нужно создать с нуля сервис конкурентной аналитики.  по примеру SellerDen для маркетплейсов, а нам нужно создать такой же функционал по интернет магазинам конкурентов Логика примерно такая: (Захожу на карточку товара, заказываю 50 попитов, и они все попадают в корзину. Пытаюсь заказать 51, но система говорит, что столько нельзя, можно только 50. Так я понимаю, что на складе сейчас лежат 50 попитов. Захожу через несколько часов и пытаюсь заказать 50, а система говорит, что можно только 45. Я понимаю, что за условные четыре часа люди купили 5 попитов. Так я могу заходить на все маркетплейсы и на каждую карточку товара, но это займет очень много времени, поэтому за нас это делают роботы. Мы написали определенные скрипты, которые постоянно заходят на карточки товаров и смотрят остатки, изменения цен, количества отзывов и т. д. Если товар популярный, то анализ идет каждый час. Если нет, то раз в день. Эти данные мы агрегируем и предоставляем в виде сервиса.)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>ожидает предложений</t>
+          <t>500 000 руб/заказ</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1017,39 +1017,39 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 17:36</t>
+          <t>12.08.2022 17:31</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Найти и устранить уязвимости на сайте</t>
+          <t>Доработка технических требований для создания и внедрения СЭД на базе 1С: Документоборот</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>На сайте autosteklo-24.ru/  (фреймворк Symptome) обнаружили проблемы с безопасностью. Необходимо проанализировать сайт на предмет уязвимостей кода (как например в формах поиска и заказа) и устранить все найденные угрозы.</t>
+          <t>Необходимо расписать технические требования для последующей закупки услуги по внедрению СЭД 1С: Документооборот с учетом требуемых доработок Имеется предварительно подготовленный документ требований (частично описанный) а также отчет об обследовании</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>ожидает предложений</t>
+          <t>2000 руб/заказ</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25.08.2022</t>
+          <t>15.08.2022</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1059,34 +1059,34 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1 месяц</t>
+          <t>8 лет и 2 месяца</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 17:06</t>
+          <t>12.08.2022 17:31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Доработка Apache Superset</t>
+          <t>Бот телеграм граббер постов из ВК. Требуется специалист по API VK.</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Требуется доработка функций Apache Superset</t>
+          <t>Только для экспертов в указанной области. В дальнейшем функционал бота будет расширяться на другие соц. сети и настройки. Поэтому хочется работать с одним человеком с самого начала.  Требуется создать хорошего бота с пошаговой настройкой для пользователя по парсингу постов из ВК.  Пошаговая настройка включает в себя: - создание бота в телеге для постинга пользователем - получение токена вк пользователем - добавлением источников для парсинга (Сообщества или личные страницы) в граббер. - управление отображением частей поста. Варианты управления предложу. Но нужна консультация как в принципе возможно отображать детали постов.  Требуется парсить также аудио и видео, опросы, статьи (если возможно). Видео:  - один вариант со ссылкой на видео  - второй вариант – скачать видео и залить в телегу. Для этого варианта как я понимаю нужен сервер с определёнными требованиями.   Подключение оплаты тарифов в юмани для физ-лиц. Подключение партнёрской программы и личного счёта пользователя. Нужна админка для админа, где можно редактировать тарифы и видеть статистику. Может ещё чего добавим по мелочи.  Детальное ТЗ напишу при начале работе. Пока жду предложений и консультации по возможностям АПИ ВК для соединения с Телегой.  Пришлите кодовое слово "Grabber" перед сообщением для отсева ботов.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20 000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1106,34 +1106,34 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1 год</t>
+          <t>1 месяц</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 16:59</t>
+          <t>12.08.2022 17:14</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>парсинг постов из разных аккаунтов ВК</t>
+          <t>Спарсить товары( около 10000)</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Сделать парсинг последних постов из разных аккаунтов ВК на сайте ВП.  Сайт каталог арендаторов ТЦ. bazis.spb.ru/ Принцип следующий:  На главную выводятся только изображения из постов, получается сетка из картинок. При клике – переход на внутренние страницы с полным отображением поста (+ текст) и снизу в блоке «Новости» по 6 из последних опубликованных.  Раньше это было реализовано с инстой, сейчас, по понятным причинам, не работает. Поэтому выводятся просто загруженные изображения.  Посты должны подгружаться без доступа к аккаунтам. Должно быть достаточно ввести в CMS адрес аккаунта ВК. Если в посте загружено видео, на главной должна отображаться превьюшка.</t>
+          <t>Надо спарсить товары с одного сайта и залить на другой. откуда – /knx24.com/ с сохранением всех фильтров , куда – инет магаз сделанный через Б24.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>ожидает предложений</t>
+          <t>12 000 руб/заказ</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>+ 22</t>
+          <t>+ 32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1153,29 +1153,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7 лет и 11 месяцев</t>
+          <t>16 лет и 3 месяца</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 16:59</t>
+          <t>12.08.2022 16:52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Конвертировать сайт в приложение</t>
+          <t>AWS Архитектор  – диагностика текущего сетапа, рекомендации по улучшению</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Очень простой сайт с плеером и java script</t>
+          <t>Провести диагностику текущего сетапа web приложения (парсинг). Основные направления – диагностика утилизации capacity, security management. Как выглядит web приложение – небольшой парсер (на основе Lambda Python) берет несколько сотен ссылок из 3-х источников, объединяет их в DynamoDB и отправляет через SQS, проверяет ключевые слова, сохраняет результаты в DynamoDB. Пользовательский интерфейс –  принимает команды от user и показывает результаты в формате HTML таблицы на основе Linux/EC2 – Django/JS Front, двухстраничный сервер (1- для запроса, 1- для результата).</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>по договоренности</t>
+          <t>31.08.2022</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1205,39 +1205,39 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 16:43</t>
+          <t>12.08.2022 16:49</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Установить ЭЦП на Mac</t>
+          <t>Дописать код на c#</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Требуется установить ЭЦП КриптоПро на MacBook</t>
+          <t>Здравствуйте нам нужно дописать код ( плагин) для игры RUST это пишется на C#    У нас есть подобие плагинов  ( пример) Их надо дописать . Такое сможете ?</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>ожидает предложений</t>
+          <t>3000 руб/заказ</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>по договоренности</t>
+          <t>16.08.2022</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>+ 8</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1247,29 +1247,29 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7 лет и 4 месяца</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 16:43</t>
+          <t>12.08.2022 16:34</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Интеграция формы на сайте с Битрикс24</t>
+          <t>Установка, настройка 1С управление торговлей 11.4</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Сайт на Wordpress, используется плагин форм Fluent Forms. Необходимо настроить передачу Лидов с формы в CRM (Битрикс24). Все заполняемые поля + скрытые с доп инф-ей. Например, "пробросить" client id и utm-метки, чтобы они попадали в Лид в отдельные поля.</t>
+          <t>- Установить 1с в облаке (дать рекомендацию по выбору необходимой версии и тарифу) - Выполнить интеграцию каталога  сайта интернет-магазина  – с 1С УТ.  (Сайт на 1с -Битрикс  упр. сайтом коробочная версия ) на облачном сервере. (Сейчас весь каталог именно в сайте нужно его перенести в 1с с возможностью обновления цен и остатков на сайте из 1с. - Сейчас часть остатков автоматически обновляется на сайте через "кроны" примерно 10 поставщиков скачиваем остатки и цены из облкака автоматом, нужно пернести видимо это  тое в 1с  - в 1С есть модуль работы с заказами, его нужно настроить  в соответствии со внутренними стадиями используемыми в компании на данный момент  - Дать консультацию по занесению новых товаров в 1с и показать как их экспортировать автоматически на сайт.   Рассматриваем, как частных специалистов , так и агентства Для подтверждения опыта желательно показать или рассказать  о ранее выполненных  аналогичных  проектах .  Просим указать предполагаемый срок необходимый для выполнения работ.</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1294,34 +1294,34 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11 лет и 1 месяц</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 16:13</t>
+          <t>12.08.2022 16:27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>С помощью js собрать инорфмацию о посетителе(разрешение экрана и т.д) и положить данные в txt</t>
+          <t>Нужен человек, который разбирается в вёртске и сможет сделать разовый код ревью. Оплата 300 р в час</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Здравствуйте, уважаемые. требуется написать js скрипт, который собирает нужную мне информацию о юзерском ПК и складывает эти данные в txt файл. Есть пример сайта, который собирает с помощью js нужные данные и выводит на экран. собираем следующие данные: разрешение монитора Оперативную память deviceMemory количество ядер hardwareConcurrency WebRTC IP Address  язык браузера  (с помощью Navigator Object)  и ещё кое-что  2500 руб.</t>
+          <t>Код ревью нужно будет сделать по видео связи, либо сперва сделать код ревью, а потом созвониться со мной.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2500 руб/заказ</t>
+          <t>1200 руб/заказ</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>меньше месяца</t>
+          <t>4 года и 5 месяцев</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 16:08</t>
+          <t>12.08.2022 16:24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Тестирование сайта Интернет-магазина</t>
+          <t>Нужна помощь по 1с</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>craftology.ru/ сайт на 1с-битрикс. Нужно провести полноценное тестирование сайта, какие скрипты работают, какие нет, где конфликты. У сайта отдельные сервисы блоков рекомендаций, поиска, попапов, посмотреть где есть конфликты этих сервисов, с самим сайтом.  Посмотреть, найти косяки верстки на адаптиве ios, android разных моделей.</t>
+          <t>Необходима помощь по 1с, а именно скачать с инфостара.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>+ 9</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1388,29 +1388,29 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4 года и 3 месяца</t>
+          <t>2 года и 5 месяцев</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 16:02</t>
+          <t>12.08.2022 16:01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Интеграция Б24 и Asterisk, рассчитать всё необходимое для стабильной работы при 1000+ операторов.</t>
+          <t>Перенести Access формы на web (php)</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Реализовать интеграцию Битрикс24 и Asterisk, рассчитать всё необходимое оборудование и программное обеспечение, при загрузке свыше 1000 операторов в моменте.   Более подробно расскажу при общении.</t>
+          <t>Здравствуйте. Есть БД Access с таблицами и формами Требуется реализация вывода этих таблиц и форм () на веб-приложение. Желательно использование MySQL и PHP Во вложении пример БД (представление Старт)</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10.08.2022</t>
+          <t>по договоренности</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1435,34 +1435,34 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1 год</t>
+          <t>2 месяца</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 15:28</t>
+          <t>12.08.2022 15:57</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Интегрировать Сalldog и Битрикс24 по API</t>
+          <t>Настройка интеграции приложения с Битрикс24</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Интегрировать Сalldog и Битрикс24 по API</t>
+          <t>Требуется настроить двухстороннюю интеграцию приложения с Битрикс24. В сторону Б24 должны отправляться оформленные корзины со всеми параметрами, так же формы обратной связи, включая "купить в 1 клик", "под заказ". В обратную сторону должны отправляться смены статусов заказа</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1200 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1487,24 +1487,24 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 15:11</t>
+          <t>12.08.2022 15:43</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Приложение в ВК</t>
+          <t>Поиск барабанных партий в аудиофайле</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Необходимо сделать почти такое же приложение vk.com/app6841964_-371194... для группы в ВК</t>
+          <t>Здравствуйте .   Написать питон скрипт с комментариями который на вход принимает аудиофайл (песня) и в этом аудиофайле ищет чистые барабанные партии (далее Drum Brakes). Если находит то указывает тайм-коды  Примеры драм брейков и one-shot (отдельные звуки бас-барана, малого барабана, хай хета) предоставлю. Сколько примерно может стоить такая работа ?  Задача для специалистов в области data science</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1529,34 +1529,34 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1 год и 11 месяцев</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 15:04</t>
+          <t>12.08.2022 15:15</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Сбор и структурирование данных</t>
+          <t>Дашборды для анализа страниц сайта</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Необходим сбор баз данных в согласованном формате соискателей работы по заданным позициям на работных сайтах. Сбор осуществляется по доступам исполнителя. Также рассматривается вариант по имеющимся базам.</t>
+          <t>Что мы хотим видеть в дашборде по продуктовым страницам:  Шапка (Даты, Страница)  -  Посетители (желательно иметь разбивку на Постоянных и Новых) Удобно в виде графика  - Источник трафика Диаграмма + список с процентовкой по источникам  - Отказы Цифра  - Глубина просмотра Цифра  - Время на сайте Цифра  - Возраст Диаграмма + список с процентовкой по источникам  - Тип устройства Диаграмма + список с процентовкой по источникам  -Клик по номеру телефона на странице  (желательно иметь разбивку на Рекламные и Не рекламные) Конверсия (Процент) + Достижение цели (Цифра) + График с динкамикой  -Отправка формы калькулятор  (желательно иметь разбивку на Рекламные и Не рекламные) Конверсия (Процент) + Достижение цели (Цифра) + График с динкамикой  -Отправка формы заявка на расчет (желательно иметь разбивку на Рекламные и Не рекламные) Конверсия (Процент) + Достижение цели (Цифра) + График с динкамикой  -Клик по email  (желательно иметь разбивку на Рекламные и Не рекламные) Конверсия (Процент) + Достижение цели (Цифра) + График с динкамикой  - Переход в чат  (желательно иметь разбивку на Рекламные и Не рекламные) Конверсия (Процент) + Достижение цели (Цифра) + График с динкамикой  - Скачивание файла  (желательно иметь разбивку на Рекламные и Не рекламные) Конверсия (Процент) + Достижение цели (Цифра) + График с динкамикой  - Лиды всего Конверсия (общий процент) + Цифра (Кол во лидов) + CPL (Цифра)  - Директ расходы по рекламе направленной на данную страницу Сумма расхода(Цифра) + График с динкамикой + CTR (Цифра)  То, до чего смогли додуматься сами по тому, что хотели бы видеть в отчете. Смысл данного отчета в том, что мы хотим видеть на одном отчете все ключные данные по каждой странице для анализа эффективности самой страницы и рекламы направленной на неё. Готовы выслушать ваши идеи и предложения, того, что можно улучшить)  Приоритетно рассматриваем для реализации Google Data Studio, так как в данной системе уже есть другие Дашборды.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10 000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>+ 1</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1576,29 +1576,29 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2 года и 5 месяцев</t>
+          <t>1 год и 5 месяцев</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 14:51</t>
+          <t>12.08.2022 15:14</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Чат бот с личными кабинетами и реферальной программой</t>
+          <t>Бот для мониторинга свободной записи на визу</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Добрый день. Нужен бот в телеграм. Продажа напитков с реферальной системой вознаграждений. Желательно с возможностью интегрировать (отправлять данные) в 1С.   Если есть похожие выполненные проекты – портфолио приветствуется. Все обсуждаемо.   Первичное техническое задание в прикрепленном файле – давали на разработку в 1 с но скорее всего будут правки.</t>
+          <t>Необходим бот для мониторинга свободных мест и записи в визовый центр.  visa.vfsglobal.com/blr/en... бот должен совершать зацикленные действия:  1. входить в зарегистрированный аккаунт (капча), выбрать город, тип визы (задавать в настройках) 2. мониторить наличие свободных слотов каждые 9 секунд 3. заполнять данные заявителя, которые автоматически попадают с сайта для записи после заполнения формы и оплаты 4.выбирать дату, время (диапазон ближайших свободных дат: с... по ...)</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>+ 14</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1623,29 +1623,29 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10 лет и 2 месяца</t>
+          <t>1 год и 6 месяцев</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 14:47</t>
+          <t>12.08.2022 15:08</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Tilda, создать личные кабинеты для пользователей</t>
+          <t>Решить задачку с масштабированием серверов, предварительно оценив само предложенное решение</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>На 1 странице в Tilde расположены несколько скриптов, которые вытягивают Таблицы из Google Таблиц  1 скрип = 1 Google таблица и все скрипты находятся на 1 Странице. Нужно сделать форму авторизации и условие если логин и пароль совпадает то работает Скрипт №1  Логины и пароли можно установить сразу, т.е. форма без регистрации</t>
+          <t>Есть проект bigbluebutton.org/ – open source вебинары  У этого решения, как, впрочем и у многих других есть проблемы работы под высокой нагрузкой. Надо масштабировать эти сервера.   Для такого решения есть вот такой проект    github.com/blindsidenetwo...  Что надо сделать:  1. Настроить балансный сервер, организовать создание комнат через API 2. Настроить некоторое количество серверов BBB или настроить автоскейлинг при нагрузке 3. Настроить запись вебинаров и выдачу по API скомпилированного видео файла 4. Обязательно проверить работу встраивания вебинара в iframe на разных поддоменах или настроить чтобы работало на доменах 3 уровня.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>по договоренности</t>
+          <t>09.09.2022</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1670,34 +1670,34 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1 год и 6 месяцев</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 14:28</t>
+          <t>12.08.2022 14:52</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Удалить вирус на хостинге</t>
+          <t>с# – отправка сообщений в whatsapp</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Удалить вирус на хостинге. Почистить файлы</t>
+          <t>Нужна программа на C# с исходниками и комментариями по коду (net 5.0, windows forms) для отправки сообщений (тексты, фото, файлы) в ватсап. Только без использования сторонних сервисов с регулярной оплатой (за исключением если что-то прям совсем недорогое будет). Можно как вариант как-то whatsapp web использовать или еще что-то.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1717,29 +1717,29 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>меньше месяца</t>
+          <t>10 лет и 4 месяца</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 14:27</t>
+          <t>12.08.2022 14:52</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Разработка сервиса виджетов – API, Backend, виджеты</t>
+          <t>Бот для соц. сети</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Необходимо доработать сервис виджетов. Виджеты – это html страницы, которые показываются в нашем андроид приложение на экране ТВ. Пример виджета – расписание фитнес клуба или меню кафе.  Наш стек: Frontend (сами виджеты): React Backend: Node.js, Nginx, MongoDB CI/CD: GitLab, Docker  Ссылка на полное описание задача – docs.google.com/document/...</t>
+          <t>Доработать бота на pyton осталась одна задача , наполнение существующих аккаунтов собранными данными</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 1</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1764,29 +1764,29 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>меньше месяца</t>
+          <t>1 год и 2 месяца</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 14:15</t>
+          <t>12.08.2022 14:48</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Разработка программного обеспечения для отображения RTSP потоков. (Android OS)</t>
+          <t>Экспертиза соответствия програмного обеспечения</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Разработка программного обеспечения для одновременного отображения нескольких RTSP потоков (не менее 20, можно больше). Разработка для платформы Android (API 23) – обсуждаемо. Для отображения RTSP потоков использовать библиотеки FFMPEG с ограничением отображаемых кадров в секунду. Должна быть возможность регулирования от 1 до 25 кадров/сек для каждого потока RTSP индивидуально.  Должно быть реализовано 2 вида просмотра изображения из RTSP потоков: 1. в виде сетки (5 столбцов * 4 строки) – всего 20 камер. можно больше если будет хватать производительности. Возможные разрешения RTSP потоков для данного режима: 352*288, 640*480, 720*480. 2. полноэкранный режим – просмотр изображения с 1 выбранной камеры из 20 камер. Возможные разрешения RTSP потоков для данного режима: 4К, 2.7К, FullHD, HD, 352*288, 640*480, 720*480.  Должно быть обеспечено равномерное обновление в сетке изображения с каждого из 20 потоков RTSP, т.е. применяя ограничение отображаемых кадров в секунду реализовать последовательное обновление картинки с RTSP, не допуская зависания изображения с других потоков.  По окончании работ предоставить заказчику исходный код.  Среда разработки – Android Studio, язык разработки – Java. При необходимости применять JNI.</t>
+          <t>Необходимо составить заключение о соответствии разработанного ПО техническому заданию. Заключение нужно для суда.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>+ 9</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9 лет и 8 месяцев</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 14:07</t>
+          <t>12.08.2022 14:48</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Ищем разработчиков в категориях data science и data engineering</t>
+          <t>$meta-&gt;description категорий (DLE 15.2)</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Цель – разработать инструмент прогнозирования выручки на еженедельной основе. Данные по выручкам предоставим.  Как примерно выглядит инструмент: Для прогнозирования используем machine learning подход из 2 слоев:  1. prophet для прогнозирования временных рядов (для каждой пиццерии) 2. Все прогнозы объединяем в одну табличку и обучаем бустинг над деревьями (в нашем случае catboost) для корректировки прогнозов с учетом других показателей (праздничный/предпраздничный день, какой именно праздник; регион и тд)</t>
+          <t>Здравствуйте. Нужно настроить метатег description для страниц пагинации.  Сейчас движок берёт слово с дополнительного поля, нужно решение.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -1848,39 +1848,39 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 31</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 1</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>меньше месяца</t>
+          <t>12 лет и 3 месяца</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 14:00</t>
+          <t>12.08.2022 14:48</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Разработка смарт контракта (для фабрики минта и монеты) и токеномики для игры в сети блокчейн</t>
+          <t>Создание системы обработки обращений Helpdesk</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Задача Создаем игру на базе блокчейна. Необходим человек или команда, которая разработает смарт контракт и токеномику. Далее разработка игры...</t>
+          <t>Сделать многопользовательскую систему (возможно взять наиболее удобную за основу) для распределения обращений по бизнес-процессу, с гибким назначением сотрудников; Настройка разного уровня доступа сотрудникам.  Гибкая настройка бизнес-процесса;  Многопользовательская и автоматизированная обработка до 3 000 обращений  в месяц;   Интеграция обработки сообщений с внешними системами;  Распределение ответственности между пользователями;  Контроль сроков реагирования; Выгрузка всех данных в .xlsx/.csv  Аналитика обработанных данных, качества и скорости работы сотрудников.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1905,44 +1905,44 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>10 месяцев</t>
+          <t>1 год и 2 месяца</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 13:55</t>
+          <t>12.08.2022 14:03</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Решить баги, образовавшиеся в bugtracker; fullstack: Laravel , Nuxtj</t>
+          <t>Тест сайта</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Решить баги, образовавшиеся в bugtracker; fullstack: Laravel , Nuxtj  По двум проектам smmtouch.com/ и smmtouch.tech/ накопилось 12 багов  скриншот: prntscr.com/BpYc53GcP-V2  Ваша задача зафиксить оплата по согласованию</t>
+          <t>Требуется тест сайта на мобильные устройства</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>60 000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20.08.2022</t>
+          <t>по договоренности</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>+ 42</t>
+          <t>+ 24</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1952,44 +1952,44 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>4 года и 2 месяца</t>
+          <t>6 лет и 9 месяцев</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 13:40</t>
+          <t>12.08.2022 14:03</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Проектирование информационной системы турагенства, курсовой проект</t>
+          <t>Настройка Shadowsocks+Cloak</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Проектирование информационной системы тур агентство, с описанием на 30-35 страниц. Указать: что такое тур агентство, как проектируются информационные системы, какую информацию может содержать база данных туристического агенства.  Разработка базы данных. Сформировать набор предложений клиенту по выбору туристической путёвки различного типа (отдых, экскурсии, лечение, шоппинг, круиз и т.д.) для оптимального выбора. Учитывать возможность выбора транспорта, питания и числа дней. Реализовать выбор и сортировку путёвок.  База данных в MS Access, запросы в текстовом виде, в SQL</t>
+          <t>Здравствуйте. Есть 2 VPS сервера. Настроить на обеих серверах вот этот VPN github.com/cbeuw/Cloak  Настроить между ними маршрутизацию, чтобы когда я подключаюсь к первому серверу он обращался строго на второй сервер а потом уже в интернет и дать мне инструкцию чтобы в дальнейшем я сам смог настраивать.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>ожидает предложений</t>
+          <t>3000 руб/заказ</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>16.09.2022</t>
+          <t>13.08.2022</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>+ 1</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1999,34 +1999,34 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1 год и 3 месяца</t>
+          <t>8 лет</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 13:26</t>
+          <t>12.08.2022 13:41</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Сделать телеграмм Бота. Который из AMOCRM попадает в чат и исполнителями.</t>
+          <t>Подключить готовую программу для рассылки предложений клиентам</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Сделать телеграмм Бота. Который из AMOCRM попадает в чат и исполнителями.  Есть 3 группы по приоритетности: П1 , П2 , П3.   Если исполнитель не забирает заявку из П1 в течение 15 мин.  Заявка предлагается в П2 и далее в П3.  Сделать функционал отправить в АМО, чтобы можно было отправить сразу во все группы.</t>
+          <t>Жду готовую программу для рассылок клиентам ,через вотсап и почту .</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>2000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 1</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -2046,34 +2046,34 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>4 года и 10 месяцев</t>
+          <t>14 лет и 1 месяц</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 13:05</t>
+          <t>12.08.2022 13:37</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Надо установить ноду для тестнета</t>
+          <t>Доработка сайта на Laravel</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>По аналогии чтобы было понятно это примерно так же как установить и настроить "Apache HTTP Server" по уровню сложности.  Чтобы у вас все получилось у вас должно быть: Опыт администрирования *Nix систем  Хорошее знание командной строки Умение разбираться в документации написанной на английском языке  Мануал по установке nodes.guru/ironfish/setup... Сервер предоставим.  Какие сроки и стоимость выполнения заказа?</t>
+          <t>Сайт без дизайна. Тематика – обучающие видео по категориям + тестирование.  Нужно добавить несколько простых функций и исправить ошибки предыдущего разработчика. Для опытного специалиста задание сложностей не вызовет. При отклике укажите стоимость часа вашей работы.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>ожидает предложений</t>
+          <t>5000 руб/заказ</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -2093,29 +2093,29 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>меньше месяца</t>
+          <t>1 год и 6 месяцев</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 12:46</t>
+          <t>12.08.2022 13:37</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Разработка Chrome Extension с интеграциями</t>
+          <t>веб программист для доработки одной страницы сайта</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>30% людей работают над развитием знакомств – это сейлз, маркетинг, партнерские отношения. Но тут дилемма. Писать всем подряд тысячи имейлов не работает (это спам и не круто), а вот писать персонализированные сообщения круто, но очень долго. Вот все сейлзы и живут в пространстве где-то между.  С твоей помощью, я хочу построить Google Chrome Extension с нуля, которое будет писать персонализированные сообщения само. Для этого нужно всего 3 вещи. - Интеграция с Open AI - Поиск имейла - И парсер – скрейпер LinkedIn, чтобы искусственный интеллект выдал хорошие данные.  Все делается с помощью APIs.  Есть дизайн в фигме и описание проекта. А чего нет? Крутого и заряженного программиста, который любит работать над чем-то реальным.  Поэтому ты и читаешь этот пост.  Это крутой фриланс проект, и ты построишь что-то интересное + будешь работать с профессионалом, который увеличен своим делом.  Вот пару вопрос к тебе для нашего первого знакомства (я называю их “свиданием до свадьбы”): - Ты уже писал Chrome расширения? - Поделись своим проектом в Github - Какой опыт в программировании?  Ответь на них в сообщение.</t>
+          <t>веб программист для доработки одной страницы сайта</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -2125,12 +2125,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>31.08.2022</t>
+          <t>по договоренности</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 7</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -2140,29 +2140,29 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>меньше месяца</t>
+          <t>8 лет и 7 месяцев</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 12:39</t>
+          <t>12.08.2022 13:27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Работы по VDS на TimeWeb</t>
+          <t>Подключить платежные системы Payme.uz и Click.uz к сайту</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Добрый день. Есть vds сервер на timeweb, там подключено два домена, и я там что-то не донастроил и разобраться сам не смог, почему-то второй домен работает как зеркало первого, поэтому нужно сделать следующие доработки: - сделать второй домен независимым со своим сайтом - повесить автообновляемый сертификат Let's Encrypt на оба домена</t>
+          <t>Сайт tataxon.uz – к нему необходимо добавить платежные системы</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -2177,39 +2177,39 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>+ 14</t>
+          <t>+ 9</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 1</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>12 лет и 7 месяцев</t>
+          <t>13 лет и 7 месяцев</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 12:31</t>
+          <t>12.08.2022 13:12</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Тестовый заказ 25. Просьба не откликаться!</t>
+          <t>Программа/плагин/скрипт для записи аудио в google meet</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Тестовый заказ. Просьба не откликаться. Проверка сервисов сайта.</t>
+          <t>Дано: - сторонний аккаунт на Google - мой аккаунт на Google  Нужно реализовать следующий функционал: - я приглашаю сторонний аккаунт на Google на встречу через интерфейс встречи или календаря - в нужное время аккаунт присоединяется ко встрече и записывает аудио - по окончании встречи присылает аудио на заданный мейл/кладет его на гугл диск/кладет его на ФТП/или любая другая реализация хранения  Желательная реализация на Python</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -2234,29 +2234,29 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>меньше месяца</t>
+          <t>4 месяца</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 12:14</t>
+          <t>12.08.2022 13:12</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Битрикс24 Сделать продление тарифа. Выполнить работы: 4 задачи</t>
+          <t>1С Битрикс интрернет-магазин + crm</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Задачи: 1. Организовать работу: Продавец – Закупщик – Склад – Производство. 2. Прощет цены продажи. 3. Интеграция Битрикс24 и 1C Комплексная автомотизация. 4. Сквозная аналитика в битрикс24 Оплата Безнал. Цену предлогайте за результат (решенная задача).  Описание процесса: docs.google.com/document/...</t>
+          <t>есть 1С Битрикс интернет магазин + crm  ищем интегратора Б24 и далее нужен будет интегратор 1С Битрикс управление сайтом, с опытом настройки как самого спаренного решения (сайт + crm), так и сервера под него + шаблона аспро макс, необходимо осуществить настройку коробки (права, роботы, бизнес-процессы, воронки и т.п.)  далее есть ряд поставщиков, которые дают выгрузку своих товаров. нужно вытащить все (или часть, по согласованию) их товаров к нам, и затем обеспечить ежесуточный апдейт той или иной информации  есть список поставщиков и как они предоставляют выгрузку, доступ будет предоставлен по запросу на gmail почту  дизайн пока не нужен. пользуемся стандартным шаблоном аспро макс, по завершению технической части уже будем заниматься красотой. на данном этапе нужно будет вытащить все у доноров, правильно укомплектовать по разделам, которые мы с Вами же и назначим (обсудим и решим).  _________________________________________________________________ Работа с сайтом будет включать: первичный парсинг настройка фильтров привязка характеристик к категориям сведение свойств, категорий к единому виду настройка будущего обновления остатков, цен и новых товаров у доноров _________________________________________________________________  сотрудничество по договору, где сразу будут прописаны ключевые этапы работы.   оплата с расчетного счета на расчетный счет ИПшки, ОООшки или самозанятого – ПОЭТАПНО.  выполнили этап? получили оплату за него, двинулись далее.   работаем у нас на хостинге  Обязательные требования: опыт работы с Битрикс   с Вас ориентировочная цена каждого этапа. бюджет будет одним из ключевых параметров в принятии решения</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>+ 2</t>
+          <t>+ 3</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -2281,29 +2281,29 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>9 месяцев</t>
+          <t>6 лет и 8 месяцев</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:50</t>
+          <t>12.08.2022 13:12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Автоплатёж через Тинькофф-кассу/Интеграция по API МодульКасса с Тинькофф</t>
+          <t>Разработка и интегрирование в "Мегаплан" определённых бизнес процессов</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Нужно разработать автоподписку через Тинкофф-кассу  www.tinkoff.ru/kassa/deve...  Нужна отдельная страница – типа такого novikov-pravo.ru/oplata/i...</t>
+          <t>Добрый день!  Необходимо разработать и интегрировать в "Мегаплан" определённые бизнес процессы.  ТЗ обсудим при личном созвоне/встрече.  В отклике пожалуйста указывайте стоимость часа, и конкретное портфолио работы с "Мегапланом" или хотя бы схожий опыт. (Ну или готовность разобраться в Мегаплане). P.S. Процессы несложные, но объемные.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:49</t>
+          <t>12.08.2022 12:55</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Закрыть дубли страниц на сайте прописав rel = "canonical”</t>
+          <t>Выгрузка сделок из AmoCRM в Google Sheets</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Подробное описание в ТЗ</t>
+          <t>Мне нужно типовое решение по ежедневной выгрузке данных(как стандартный функционал экспорта). Нужно подтягивать 6-7 полей сделки, но мне нужна возможность их менять, потому что не все CRM сделаны по одному примеру. Варианты: API, виджет в самой AmoCRM(пример: cmdf5.ru/manual/google_sh...  В идеале, нужно выгрузить все поля, а я уже сам подтяну нужные, пример: docs.google.com/spreadshe...</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>12.08.2022</t>
+          <t>по договоренности</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 1</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -2375,29 +2375,29 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>4 месяца</t>
+          <t>9 месяцев</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:39</t>
+          <t>12.08.2022 12:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Написать программу для сбора данных</t>
+          <t>Решить проблему с подключением 1С к магазину на Битрикс</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Сделать облачную программу , которая будет по API собирать данные с сайта WB и Озон и с гугл таблицы.  Программа должна показывать управленческий учет. В программе должны быть фильтры по датам , товарам , прибыли и тд  Должен быть функционал ДДС, прибыли и убытки и баланс</t>
+          <t>Интернет-магазин на 1С Битрикс, ред.Бизнес Подключение к 1С, товары на сайт попадают, но без картинок. Нужно решить эту проблему.  Доступ к КОПИИ базы по веб интерфейсу, лучше по тонкому клиенту.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>+ 83</t>
+          <t>+ 10</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -2422,29 +2422,29 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>8 лет и 6 месяцев</t>
+          <t>12 лет и 10 месяцев</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:35</t>
+          <t>12.08.2022 12:40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>1С Программирование. Настройка взаимодействия 1С и Интернет Магазина на сайте.</t>
+          <t>Выкидывает из сессий rdp через 10 минут.Windows Server 2016</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Добрый день! Необходимо помочь с выбором 1С, далее его настроить и настроить взаимодействие с сайтом. Сайт планирует быть на 1С Битрикс. Верстка уже готова. Страницы сайта в приложении, в файле Word. Необходимо уже начинать добавлять товар на сайт. Жду предложений!</t>
+          <t>Есть сервер 2016.Суть такая.Каждый 10 минут при бездействии пользователя,сеанс закрывается.Сервером пользуются 2 человека.Терминальный не стоит.В групповых политиках нет ограничения на время сеанса.Попробовал поставить терминальный сервер,выдал ошибку 0x800f0831.Так же надо изменить отображаемое имя при заходе в доменную учётку.Изменил имя,но почему то осталось прежним.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>по договоренности</t>
+          <t>13.08.2022</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
@@ -2469,29 +2469,29 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>5 лет и 8 месяцев</t>
+          <t>2 года и 3 месяца</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:35</t>
+          <t>12.08.2022 11:04</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>создать бота в телеграмм</t>
+          <t>Сортировка MySQL базы, API Амазон</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Создать бота в телеграмме для приема заявлений о банкротстве оплаты услуг предоставления образцов документов клиентам форм для оплаты и отслеживание делв картотек арбитражных суда (там открытый API)</t>
+          <t>1)  Понять как все настроено в текущем процессе работы по эл рассылке. Какие данные уже есть, собираются.  2) Относительно этого – отфильтровать базу. Путем: или создания новой или внесения коррективов в данную.  3) Получить отчет о данных отправки.   Цель: отправка электронных писем по цепочке</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 12</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -2516,29 +2516,29 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>меньше месяца</t>
+          <t>6 лет и 9 месяцев</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:25</t>
+          <t>12.08.2022 10:25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>1С УТ 8.3 – исправить ошибки в обмене данными с сайтом</t>
+          <t>Разработать бот/сервис</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>1С УТ 8.3 + WordPress Наша 1с не типовая (если это важно)  Есть ошибки в обмене данными с сайтом, выгружаются давно отсутствующие в наличии товары с запасами 3шт, 10шт и т.п.  Доступ к 1с удаленно через мой ПК. Подробнее объяснить будет проще если подключитесь и сами посмотрите на примерах.</t>
+          <t>Доброго времени суток!  Задача: Реализовать бот/сервис по обработке данных  Суть: На сайтах t и s есть сервис по подбору кредитов для покупателей. То есть: клиент в этапе выбора оплаты выбирает вариант «в кредит»/ «в рассрочку». После , в окошке вводит свои данные – телефон ( для подтверждения запроса) и ИИН. Далее, эти данные поступают к банкам(будет список банков) для обработки. После завершения , на сайте получают решение от банка – одобрено/отказано.  Работа бота/сервиса: брать данные с одного сайта, то есть нашего и вбивать их на сайте t \s. Покупатели нашего сайта вводят данные у нас на сайте, бот вбивает эти данные на сайты t\s . Сайт t\s делают все работу. Решение , отображенное на сайте t\s,   бот дублирует у нас.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -2563,29 +2563,29 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>1 год и 8 месяцев</t>
+          <t>1 месяц</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:25</t>
+          <t>12.08.2022 09:58</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Настроить pipeline запуска автотестов в GitHub Actions</t>
+          <t>Разработчик АгентПлюс 2.0: Управление торговлей на языках 1С и L9</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Есть репозиторий в гитхабе с автотестами api. Автотесты на python/pytest. Для периодически прогона подключен github actions. В приложенном файле шаги workflow с автоматическим запуском этих тестов и отправкой письма на почту. Что нужно доработать:  1) Логи автотестов записывать в файл с логами (можно один файл на все тесты) 2) Отправлять письмо хотя бы при одном упавшем тесте (сейчас при условии if failure() оно отправляется только если падает джоба целиком) с приложенным в письме файлом с логами. Будет здорово, если в файле будут только логи упавших тестов, но это необязательное условие.</t>
+          <t>Требуется разработчик Агент Плюс 2.0 Управление торговлей для расширения функционала приложения внедренного на сеть складов компании на языках 1C, L9</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -2610,29 +2610,29 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>9 месяцев</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:24</t>
+          <t>12.08.2022 09:57</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Разработать базу данных на сайте и настроить выпадение предметов из кейсов</t>
+          <t>Бот для консолидирования данных,на питоне</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>ТЕХНИЧЕСКОЕ ЗАДАНИЕ  Сайт является казино сделанной по игре “standoff 2”  Задания:  1. Создать базу данных   2. Настроить пополнение баланса на сайте и заносить его в базу данных для его отображения в теге &lt;h3&gt;.  3. Создать базу данных всех предметов которые сейчас есть на сайте и присвоить им цену, и имя из списка в txt файле.  4. Создать каждому игроку профиль в котором будет отображаться его предметы которые он получил.  5. Настроить выпадение предметов из кейсов, чтобы после выбора параметров и нажатия на кнопку "ОТКРЫТЬ" появлялось окно рулетки и выпавший из неё предмет попадал игроку в инвентарь и заносился в базу данных. Как примерно должна выглядеть рулетка:</t>
+          <t>Необходимо написать бот для консолидирования данных и взаимодействия между подразделениям с обменом данных на сервере bigQuery,на питоне</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>по договоренности</t>
+          <t>17.08.2022</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
@@ -2662,34 +2662,34 @@
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:12</t>
+          <t>12.08.2022 09:46</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Создать простое одностраничное приложение с формой на Vue.js 2/3 (Vuetify)</t>
+          <t>Телеграм Бот для написания комментариев</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Требуется создать простое одностраничное (без переходов) приложение на Vue.js 2/3 (Vuetify). Страница должна представлять собой форму для ввода данных (два поля) и отправку по кнопке запроса с использованием API. Дизайн и API будут предоставлены</t>
+          <t>Необходимо писать комментарии под определенными постами в телеграм. Колличество аккаунтов с которых надо писать комментарии 30-50. Комментарии разные, тексты комментариев предоставлю. Предложите услугу или решение.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>5000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>12.08.2022</t>
+          <t>16.08.2022</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
@@ -2704,44 +2704,44 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>9 лет и 2 месяца</t>
+          <t>5 лет и 1 месяц</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:07</t>
+          <t>12.08.2022 09:45</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Разработать блок записи видео+аудио/аудио на выбор для сайта</t>
+          <t>C# Developer для проекта телемедицины</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Для сайта на тильде разработать блок, который будет записывать видео после нажатия на кнопку начать запись видео с вебкамеры и/или аудио.  Готов обсудить варианты/интеграции. Предлагайте вариант решения задачи Пример – ru.webcamtests.com/record...</t>
+          <t>Работа над проектом телемедицины со знанием С#, Docker, WSO2 API Manager, Apache ActiveMQ Artemis, SOAP, JSON, mssql, стандартов СМЭВ 3.х (Госуслуги)</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>7000 руб/заказ</t>
+          <t>200 000 руб/заказ</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>по договоренности</t>
+          <t>30.09.2022</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>+ 1</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -2751,29 +2751,29 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>1 год</t>
+          <t>1 месяц</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 10:41</t>
+          <t>12.08.2022 09:34</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Нужна помощь в пуско-наладке программы для публикации контента.</t>
+          <t>Решение задач python</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Нужна помощь в пуско-наладке программы для публикации контента.  Нужно создать шаблон и убедиться, что он работает. Пишите Ваши предложения.</t>
+          <t>Задачи подробно описаны в файлах</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>05.08.2022</t>
+          <t>по договоренности</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
@@ -2798,34 +2798,34 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>1 год и 2 месяца</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 09:38</t>
+          <t>12.08.2022 08:01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Бот для подключения на сайте соцсетей</t>
+          <t>Парсер www.rentalcars.com (scrapy)</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Бот, который подключает Twitter, Discord к сайту За примерами сайтов пишите в лс Требования: - Выполняет действия на запросах(можно и кликкер) - С возможностью выбирать действия, то есть подключить только с Twitter or кошелек с Twitter and Discord - И дополнительная строка для Proxy, так чтобы бот заходил на аккаунты Twitter и Discord под определенным прокси</t>
+          <t>Необходим парсер сайта rentalcars.com  Требования: python + scrapy  На вход скрипта получаем город + диапазон для поиска (например Rome / 15.08-21.08). На выходе ожидается xlsx файл со всеми предложениями за этот диапазон.   Важные поля: Марка Стоимость Прокатная компания  Использование прокси листов + любого решения обхода капчи</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>7000 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
@@ -2850,34 +2850,34 @@
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 09:37</t>
+          <t>11.08.2022 21:58</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Необходимо настроить переадресацию c авторизацией</t>
+          <t>Создать бот в ТГ для записи на собес-е в Посольство США</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Здравствуйте! Имеется сайт на админке wordpress, настроена переадресация созданных пользователей в админ.панели.  То есть я создаю пользователя и он при входе на сайте переадресовывается на нужный мне сайт. Что необходимо – чтобы пользователь проходил автоматическую авторизацию на нужном сайте. Доступа к стороннему сайту нет, только в личный кабинет как обычный пользователь. Как я понимаю, что нужно – вшить в переадресацию логин и пароль чтобы этот логин и пароль автоматический вставлялись в форму авторизации /login и прожималась кнопка войти и пользователь попадал в свою панель управления.</t>
+          <t>Нужно создать бот для записи в Посольства США на получение туристической визы с прохождением  собеседования на Мальте и возможно других странах.   Бот должен проверять наличие свободных дат и мест для записи каждые 9-20 секунд и автоматически записывать заявителей в порядке очереди на свободные даты.  Как правило для записи нужны логин и пароль заявителей от лк на сайте Посольства, соответственно, бот должен обходить блокировки и подозрительную активность и коннектиться с личным кабинетом.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>ожидает предложений</t>
+          <t>3000 руб/заказ</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>по договоренности</t>
+          <t>15.08.2022</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
@@ -2892,44 +2892,44 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>8 месяцев</t>
+          <t>11 лет и 6 месяцев</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 08:22</t>
+          <t>11.08.2022 20:47</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Консультация по Docker контейнеризации</t>
+          <t>tails</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>На сервере поднят контейнер с WordPress. Необходимо создать пользователя, который будет иметь FTP доступ к файлам приложения и подготовить небольшую инструкцию, объясняющую как это делается.</t>
+          <t>Необходимо, чтобы tails работал с внешнего жесткого диска, автономно, также настроить мосты, чтобы работал тор, так как провайдер не дает этого сделать.     P.S.  Установил tails на внешний женский диск, на одном пк, где установлена операционная система – он запускается. При подключении ко второму пк, где нет ни женского диска, ни ssd он не запускается.   Необходимо сделать так, чтобы внешний женский диск вместе tails были автономны, те должна быть операционная система и tails на внешнем женском диске одновременно.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>2500 руб/заказ</t>
+          <t>1200 руб/заказ</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>по договоренности</t>
+          <t>12.08.2022</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>+ 2</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -2939,29 +2939,29 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>1 месяц</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 07:48</t>
+          <t>11.08.2022 20:46</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Загрузка данных о продаже из RKeeper 7 (Менеджер) в 1С:Общепит</t>
+          <t>Бот телеграм граббер постов из ВК. Требуется специалист по API VK.</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Необходимо написать загрузку данных о продажах товара из базы данных RKeeper 7 (Менеджер или касса) в 1С 8.3 конфигурация Общепит.   Учесть при загрузке: Возможность сопоставления номенклатуры (новой). Выделить продажи сотрудникам и покупателям отдельно (в RKeeper созданы разные типы валют).</t>
+          <t>Только для экспертов в указанной области. В дальнейшем функционал бота будет расширяться на другие соц. сети и настройки. Поэтому хочется работать с одним человеком с самого начала.  Требуется создать хорошего бота с пошаговой настройкой для пользователя по парсингу постов из ВК.  Пошаговая настройка включает в себя: - создание бота в телеге для постинга пользователем - получение токена вк пользователем - добавлением источников для парсинга (Сообщества или личные страницы) в граббер. - управление отображением частей поста. Варианты управления предложу. Но нужна консультация как в принципе возможно отображать детали постов.  Требуется парсить также аудио и видео, опросы, статьи (если возможно). Видео:  - один вариант со ссылкой на видео  - второй вариант – скачать видео и залить в телегу. Для этого варианта как я понимаю нужен сервер с определёнными требованиями.   Подключение оплаты тарифов в юмани для физ-лиц. Подключение партнёрской программы и личного счёта пользователя. Нужна админка для админа, где можно редактировать тарифы и видеть статистику. Может ещё чего добавим по мелочи.  Детальное ТЗ напишу при начале работе. Пока жду предложений и консультации по возможностям АПИ ВК для соединения с Телегой.  Пришлите кодовое слово "Grabber" перед сообщением для отсева ботов.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>+ 1</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -2986,44 +2986,44 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>6 лет и 1 месяц</t>
+          <t>1 месяц</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 06:48</t>
+          <t>11.08.2022 20:45</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>API обновление прайс листа</t>
+          <t>Проблема с отображением картинок OpenCart (ocStore) на NGINX</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Настройки API обновления обновления ,для   дром базы с сайтом на 1с битрикс 24,   описание baza.drom.ru/help/API</t>
+          <t>Добрый день  Сервер не хочет отдавать картинку по прямой ссылке. mobilo4ka.ru/image/catalo... Хотя она существует. Если в названии папки есть пробел и не только!  У нас получаеться в админке из за этого картина не отображается joxi.ru/4AkZ4dIo3gKk2q?d=...  mobilo4ka.ru/image/catalo... mobilo4ka.ru/image/catalo...  Когда сервер был на apache все работало. Переехали на nginx и не работает</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>1200 руб/заказ</t>
+          <t>ожидает предложений</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>10.08.2022</t>
+          <t>по договоренности</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 52</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
@@ -3033,39 +3033,39 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>меньше месяца</t>
+          <t>11 лет и 8 месяцев</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 06:16</t>
+          <t>11.08.2022 20:22</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>fl.ru</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Скрипт для macOS</t>
+          <t>Нужна помощь с PHP</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>1) Отключить максимум plist телометрии 2) Целиком удалить из системы драйвера беспроводных сетей 3) Подменить мак адрес, с сохранением после перезагрузки системы 4) Подменить серийник, с сохранением после перезагрузки 5) Подменить серийник жесткого диска, с сохранением после перезагрузки 6) Удалить системные логи, удалить логи Bluetooth и Wireless сетей и заблокировать папки для записи 7) Целиком удалить из системы драйверы для работы аудио 8) Целиком удалить из системы драйверы для работы камеры 9) При запущенном little snitch ничего не должно стучать на сервер из отключенных plist кроме сафари браузера, достичь этого можно блокировкой и удалением фонящих на сервер яблочных приложений  роботу скрипта перевірятиму через термінал та інші методи працюю тiк через місцевий безопасный платеж   macOS Ventura, Catalina</t>
+          <t>Нужно разобраться каким образом можно запустить код PHP  хранящийся в файле формата JPEG с веб сервера. Ссылка на статью – github.com/dlegs/php-jpeg...</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>100 000 руб/заказ</t>
+          <t>5000 руб/заказ</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>13.08.2022</t>
+          <t>15.08.2022</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
@@ -3085,569 +3085,3980 @@
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 06:16</t>
+          <t>11.08.2022 18:50</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Запись кода в базу данных и вывод на страницу – №1176642</t>
+          <t>Перенести среду разработки с виртуалки на Parallels на виртуалку для Windows</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Как нужно реализовать, вот сам сайт ссылка, где текст "tyt kluch" нужно чтобы появлялась сам ключ, который будет формироваться. Как нужно сделать формирование ключа, у меня есть база данных где хранятся ключи, формирование идет через панель, но так-как я не хочу постоянно создавать ключи, и хочу автоматизировать, предлагаю сделать таким образом, после оплаты клиента соответственно отправляется сам товар через result.php, надо этот result.php сделать следующие, если клиент оплатил на месяц то идет запрос в базу данных где хранятся ключи на формирование ключа на месяц, сам ключ можно формировать рандомный md5 или любой другой (то есть достаточно отправить запрос в базу данных на создание новой строки с ключом), далее этот сформирований ключ передается в основную базу данных и вводиться на страницу выше.</t>
+          <t>Eсть небольшая утилита на Delphi, которую не запускал пару лет. Нужно ее снова поднять и запустить, и передать мне настроенную рабочую среду:  • Поставить среду разработки на Delphi • Перенести СУБД и данные • Скомпилировать • Запустить утилиту, ей нужны данные из БД на моем хостинге.  • Попутно разобраться со всеми отвалившимися библиотеками, протухшими учетками к БД и т.п.  Исходная среда разработки – под виндой на виртуалке на Parallels,  Целевая нужна на виртуалке под винду типа VMware</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>$17</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr"/>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>+ 3</t>
+          <t>+ 14</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>1 год в сервисе</t>
+          <t>9 лет и 9 месяцев</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>10.08.2022 00:31</t>
+          <t>11.08.2022 18:50</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Создать вебсайт на вордпресс – №1176625</t>
+          <t>Дописать клиент-серверную программу на python3</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>У меня есть готовая верстка
-создать тему из этой верстки
-и создать каталог товаров с категориями (пост тайп)
-нужен перевод через гугл транслейт (код или плагин)
-поправки по верстке я делаю сам это не ваша задача.</t>
+          <t>Всем доброго времени суток.  Требуется дописать программу, которая будет собирать данные по сокет и отправлять определённые баш-скрипты в зависимости от полученных данных, готова немалая часть программы, подробности кандидатам. Оплата по факту (можно поэтапно) или СБР, бюджет 250$. Срок 6 дней, довольно сжатый, но работы фактической часов на 10-12. Оставляйте портфолио, примеры работ.  Разыскивается разработчик, который имеет релевантный опыт парсинга.  Требования: - адекватный, думающий и грамотный специалист; - умение понимать задачу, доводить работу до конца; - опыт работы, примеры решения нестандартных задач; - понимание архитектуры веб-систем; - опыт работы с парсерами, грабберами; - желание учиться и применять новые технологии.  Важно: не пишите пожалуйста, если у вас нету живых примеров работ на python.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>$120</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr"/>
+          <t>15 000 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2022</t>
+        </is>
+      </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>+ 214</t>
+          <t>+ 21</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 2</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>13 лет в сервисе</t>
+          <t>12 лет и 4 месяца</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 21:05</t>
+          <t>11.08.2022 18:09</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Доработка сайта на Opencart – №1176609</t>
+          <t>Настроить расчёт себестоимости в 1С.УНФ</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Здравствуйте, ТЗ прилагается ниже. Пишите кто сможет помочь и за какую цену и сроки.</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
+          <t>Здравствуйте! (При отклике укажите, пожалуйста, Ваши примерные расценки.) Группа компаний, включающая 4 юридических лица, управление и учет осуществляет в программе 1 С – УНФ. редакция 1.6 . Для бухгалтерского и налогового учета используется отдельная программа 1 С – Бухгалтерия, 8.3. Программы синхронизируются. Виды деятельности компаний : - производство, - торговля оптовая, - торговля в маркетплейсах, - оказание услуг. На протяжении 2х лет закрытие периодов в 1:С УНФ осуществлялось с ошибками: 1) Приход был сделан по времени позже расхода , иногда не в пределах одного дня; 2) Ошибка выбора номенклатуры (дубли); 3) Расход с другого склада; 4) Отрицательные остатки (контроль отключен) Результат : не формируется себестоимость товаров и услуг, и как следствие – не формируется финансовый результат. Один из вариантов решения данной проблемы – перенос данных из текущей базы 1 С:УНФ в новую (чистую) базу, с проведением консультирования сотрудников, работающих в этой базе о порядке и правилах отражения фактов производственно-хозяйственной деятельности в базе, с целью исключения повторения ошибок. Готовы рассмотреть Ваши варианты решения . Локальная задача, с которой хотелось бы начать – настроить расчёт себестоимости. Глобальная конечная задача – настройка корректного ведения управленческого учета в 1:С УНФ для оперативного, контроля, анализа и планирования деятельности бизнеса.</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>+ 64</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>4 года в сервисе</t>
+          <t>9 лет и 2 месяца</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 18:38</t>
+          <t>11.08.2022 17:52</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Перенести самописную CRM на 1С-Битрикс, срочно! – №1176602</t>
+          <t>Web-приложение для расчетов затрат по строительству</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Перенести самописную CRM на 1С-Битрикс, срочно!
-С мелкими доработками
-Бюджет 400$ оплата строго по факту готовности, без авансов
-Сроки 7 дней
-Оставляйте Ваш телеграмм на связи</t>
+          <t>Подробное ТЗ отправлю по запросу. Коротко: необходимо разработать приложение django, скопировав функционал из существующего приложения, созданного на VBA в Excel  Это рабочее место руководителя проекта по строительству. он оценивает затраты на проектирование, производство и строительство объекта для заказчика. данные о товарах – в MySQL оценка затрат ПИР и СМР – ручной ввод с форм требуется интеграция с API Деловых линий (примерный расчет стоимости доставки), aviasales(примерная стоимость билетов по маршруту) результат подсчета, формируется в Коммерческое предложение в excel, техническое предложение в powerpoint (собрать слайды из шаблонов)</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>$400</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr"/>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>+ 22</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>1 год в сервисе</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 17:14</t>
+          <t>11.08.2022 17:05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Создание лендинг-страницы на Vue.js / JavaScript/HTML/CSS – №1176597</t>
+          <t>Сделать страницу с формами авторизации/регистрации для сайта на WP с передачей данных по API</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Задание по учебному проекту — создание лендинг страницы (с адаптивному под мобильную версию) при использовании Vue.js, Java Script, HTML и CSS начального-среднего уровня.
-Есть 3 примера, по которым можно будет работать и основной сайт, с которого нужно будет взять информацию.</t>
+          <t>Нужно сделать страницу с формами авторизации / регистрации как сейчас сделано на старом сайте (момент этот обсудим, предоставлю доступ), и потом из этой формы по API передавать данные к нам в панель ( данные о пользователе и о заказе)  По формам авторизации/регистрации, нужно будет присылать тип формы, хеш (хотя бы для минимальной защиты), логин, пароль, email, firstname, lastname, country – 2 символа страны ISO, язык russian или english и валюту $ или рубль  По хешу для защиты, формируем самый простой strtoupper(md5($secretKey . $login . $password)) $secretKey = "Whojash4EyHecPeb"; строка с солью, чтобы чуть зашифровать  И данные по заказу – название и сумма  Запросы слать постом, в json-формате (url выдадим).  Сайт ИТ тематики. Скрин форм входа/регистрации прикрепил (визуально какие поля).</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>$50</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr"/>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>+ 11</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>7 месяцев в сервисе</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 16:22</t>
+          <t>11.08.2022 17:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Обновление API на сайте – №1176055</t>
+          <t>Доработать клиент SQLite для Node с поддержкой ICU</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Здравствуйте, ТЗ прилагается ниже. Пишите у кого есть опыт подобной работы и кто сможет помочь, ну и за какие примерно цену и сроки.</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr"/>
+          <t>Требуется доработать клиент для возможности выполнения регистронезависимых запросов select. Так же не работает lower для полей. Нужен спец с пониманием пользовательских функций sqlite. Сейчас sqlite&gt; select "ы" like "ы"; 1 sqlite&gt; select "Ы" like "ы"; 0 Нужно sqlite&gt; select "ы" like "ы"; 1 sqlite&gt; select "Ы" like "ы"; 1</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>+ 64</t>
+          <t>+ 1</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>4 года в сервисе</t>
+          <t>2 года и 4 месяца</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 15:54</t>
+          <t>11.08.2022 17:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Нужен программист Css/html/Ajax/Php – №1176564</t>
+          <t>Автоматизировать данные в сводной гугл таблице</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Здравствуйте,
-Необходимо сделать динамичную онлайн форму с выбором город/страна + дополнительная информация.
-В идеале еще с возможность подтянуть с Википедии широту и долготу города. 
-C ув. Алексей.</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
+          <t>У каждого пункта выдачи заказов есть своя Гугл таблица (4 точки, 4 таблицы) В них отмечаются продажи нескольких видов товаров Продали товар = поставили дату продажи в ячейке напротив  Виды товаров – во вкладках Всего не более 100 наименований товара  Нужно сделать сводную таблицу Гугл по остаткам со всех четырёх ПВЗ, чтобы в неё подтягивались остатки из таблиц по каждому виду товаров от каждого пункта выдачи.  ВИДЕО ТЗ – во вложении   Если будут какие-то дополнительные рекомендации\решения\предложения по улучшению функционала – рассмотрю  Оплата Киви\Юмани\Виза\Мастеркард\Мир\Приват и проч – без проблем</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 11</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>15 лет в сервисе</t>
+          <t>11 лет</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 13:39</t>
+          <t>11.08.2022 16:56</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Создание лендинг страницы при использовании Vue.Js, Java Script, HTML – №1176555</t>
+          <t>Восстановить .pptx файл</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Задание по учебному проекту — создание лендинг страницы при использовании Vue.js, Java Script, HTML и CSS начального-среднего уровня. Вы можете предложить свои идеи/примеры.
-Примеры от преподавателя могу отправить в личные сообщения.</t>
+          <t>Есть презентация (делалась в PowerPoint 2016-19) в 11.3 МБ веса (и вытащенные через прогу для восстановления удалённых файлов много-много его предыдущих версий).  Проблема: После очередного сохранения начало выдавать "Приложение PowerPoint обнаружило проблему с содержимым. Попробовать восстановить?". После попытки восстановления — "К сожалению, PowerPoint не может прочитать файл".  Ожидание: Вернуть работоспособность презентации или хотя бы вытащить из неё целиком текст слайдов.  Пробовал открывать через LibreOffice — открывает в формате текстового документа с абракадаброй. Пробовал восстанавливать через Recovery Toolbox for PowerPoint — говорит, что нет данных для восстановления.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>$35</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr"/>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>+ 11</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>7 месяцев в сервисе</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 12:43</t>
+          <t>11.08.2022 16:39</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Капча гугл – №1176546</t>
+          <t>Форма выгрузки данных из программы Базис мебельшик 11</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>На сайте стоит капча гугл, проверка отмечена галочка или нет есть, она работает, но некоторые роботы капчу обходя. В письме, которое приходит видно что галочка при отправке формы не проставлена, иногда проставлена, иногда нет. Нужно решить этот вопрос.</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr"/>
+          <t>Требуется форма выгрузки из программы Базис Мебельщик 11 в результате которой будет сформирован определенный документ содержащий информацию для покраски деталей. Все информация в модели присутствует нужно взять определённую и сформировать документ в формате Excel  Вариант конечного результата прилагаю.</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>+ 31</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>16 лет в сервисе</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 11:59</t>
+          <t>11.08.2022 16:29</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Створити новий функціонал на працюючому проєкті – №1176509</t>
+          <t>Добавить многопоточность и автодм в скрипт дискорда</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Шукаю бекендщіка (java) спеціаліста, який вміє працювати із фрейморком spring. Е сайт marketplace.eotua.com, потрібно доробити апі згідно нового процесу:ссылка
-створювати новини
-відгуки
-додавати відео (лінки з ютубу)
-логіка батарейки
-додавання товарів</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr"/>
+          <t>Здравствуйте, нужно добавить многопоточность и автодм в скрипт дискорда. Скрипт под автодм с парсингом под смайлики у меня есть и под каналы welcome так же есть, если кто не знает о чём я прикрепил скины ( суть простая человек нажимает на смайлик, софт видит это с помощью аккаунта дискорд и вытаскивает id для того чтобы другие токены отослали ему сообщение )  В итоге что нужно сделать:  1)Многопоточность без пересечения между id ( То есть чтобы разные токены дискорд рассылали разным людям сообщения и не было такого что 2 дискорда например отправили одному и тому же человеку) сейчас у меня работает только 1 поток. 2)Исправить автодм и welcome о чём говорил выше (Это думаю будет достаточно просто, учитывая что уже есть готовые решения для этого, то есть есть скрипты где это уже реализовано.)  Доп информация: Язык скриптов Python Токены дискорд для работы предоставлю. Нужен грамотный и ответственный фрилансер, который сделает все быстро. Дедлайн 1 день. Оплата по факту или через безопасную сделку (Скамеры с предоплатой мимо, можете не писать)</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>4500 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>14.08.2022</t>
+        </is>
+      </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>+ 44</t>
+          <t>+ 2</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>5 лет в сервисе</t>
+          <t>6 лет и 2 месяца</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 07:25</t>
+          <t>11.08.2022 16:28</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Створити новий функціонал на працюючому проєкті – №1176507</t>
+          <t>Синхронизация cms битрикс и амо срм</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Шукаю бекендщіка (java) спеціаліста, який вміє працювати із фрейморком spring. Е сайт ссылка, потрібно доробити апі сгідно нового процесу:ссылка
-створювати новини
-відгуки
-додавати відео (лінки з ютубу)
-логіка батарейки
-додавання товарів</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr"/>
-      <c r="E67" s="2" t="inlineStr"/>
+          <t>Необходимо настроить синхронизацию cms битрикс с амо срм, чтобы все заявки из форм обратной связи поступали автоматически в амо</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2022</t>
+        </is>
+      </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>+ 44</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>5 лет в сервисе</t>
+          <t>меньше месяца</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 07:24</t>
+          <t>11.08.2022 15:16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Бот для подключения на сайте соцсетей – №1176495</t>
+          <t>Интеграция УТ 10.3 и OZON</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Бот, который подключает Twitter, Discord к сайту
-За примерами сайтов пишите в лс
-Требования:
-- Выполняет действия на запросах(не кликер)
-- С возможностью выбирать действия, то есть подключить только с Twitter or кошелек с Twitter and Discord
-- И дополнительная строка для Proxy, так чтобы бот заходил на аккаунты Twitter и Discord под определенным прокси</t>
+          <t>Необходимо реализовать интеграцию УТ 10.3 с маркетплейсом Ozon. Api Ozon и вся документация имеется очень подробная в открытом доступе. По факту нужно формирование заказа из OZON в 1с, сихронизация остатков и цен.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>$150</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr"/>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>+ 0</t>
+          <t>+ 0</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>- 0</t>
+          <t>- 0</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>1 день в сервисе</t>
+          <t>3 месяца</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>09.08.2022 07:21</t>
+          <t>11.08.2022 14:39</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>weblancer.net</t>
+          <t>FL.RU</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Настроить и подключить API к сервису sudrf.ru – №1176511</t>
+          <t>Работы на сервере nginx</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
+          <t>Нужен серверный администратор с опытом работы от 3 лет  Есть сервер nginx, на котором установлены правила CORS, но раз в определенный промежуток времени, файл conf с настройками CORS перезаписывается автоматически.  Задача – сделать так, чтобы при автоматической перезаписи правила CORS не стирались, так же подкорректировать правила, чтобы только определенный хост мог получить доступ к серверу</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>меньше месяца</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 14:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Программный комплекс</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Программный комплекс Клиентская часть Программа внешне похожая на торрент клиент MediaGet, с встречным плеером для просмотра фильмов и функцией просмотра фильма в процессе скачивания, поддерживается стандартные торрент трекеры но основным отличием является то что в запущенном виде она использует мощности компьютера для майнинга одной из выбранных валют (Бикоин, эфириум по выбору пользователя). Монеты отправляются на указанный в настройках кошелек. Количество выделяемой мощности клиент выбирает самостоятельно в процентном соотношении. Административная часть Отображение количества установленных программ и количества активно работающих программ Статистика заработка. Возможность разделения дохода т.е например 30% отправляется на кошелек админа 70% на кошелек пользователя, возможность интеграции всей системы в минимум 3 мировых пулов для майнинга</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>100 000 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>6 месяцев</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 14:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Изменение бизнес-процесса на Microsoft Dynamics 2013</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Есть бизнесс-процесс по уведомлениям потребителей об отключениях, который через сборку подключаемого модуля запускает 3 бизнес-процесса: создание email, смс и голосовое уведомление. Каждый параллельно друг другу. Необходимо подправить процесс так, чтобы вначале создавался email и только если оно не отправлено или нет почтового ящика создавать смс, то есть объединить 2 процесса в один</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2022</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>5 месяцев</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 14:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Отсортировать MySQL базу, внести настройки для получения данных</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Есть база клиентов в MySQL, которые собраны через разные способы работы, через подписку на новости, через заявки. Задача в том, чтобы из этой большой базы сделать отдельную сегментированную базу, для последующей email рассылки по соответствующей сегментации этой базы.  Данная задача это составляющая email-маркетинга</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>2000 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>+ 12</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>6 лет и 9 месяцев</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 14:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Инвайты в Telegram чат</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>Добрый день! Необходимо сделай инвайты в наш Telegram чат. - каналы / группы для инвайтов дадим - не более 2₽/шт за инвайт - большое количество инвайтов</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>5000 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>13.08.2022</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>4 месяца</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 14:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Закрытие месяца в 1С:УТ</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Есть база на конфигурации 1С:УТ 11.5 Требуется помощь в закрытии месяца, при закрытии система выдает предупреждения на неверные остатки в регистре себестоимость.  Пишите свои условия, спасибо.</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>10 000 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>+ 4</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>2 года</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Настроить двухсторонний обмен сайта на Битрикс и 1С УНФ</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Требуется двухсторонняя интеграция сайта-каталога на Битрикс версии 22.0.300 с УНФ 1.6  Выгрузить каталог с сайта в 1С, настроить обмен по номенклатуре и заказам.</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>4000 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>+ 3</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>2 года и 4 месяца</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 13:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Матчинг файлов на Python nlp (восприятие естественного языка). Для дипломной работы</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Пайтон nlp(восприятие естественного языка). Есть выбранный датасет вакансий и резюме. Неразмеченный (в части лучших совпадений). Что есть в части кода – есть сервер, есть считывание текста резюме и вакансий, есть разбитие текста на токены- станза. Есть выбрать саммари документа, выделить скиилы и название профессии. Есть перевод текста в вектор Берт. косайн симилярити(похожесть) для получившегося. датасеты: data.world/jobspikr/softw... – вакансии  t.me/israjobs – файлы  Что нужно в части кода: TF-IDF, N-grams и еще комбинацию. Чтобы получить "лучшие совпадения" используя только берт, берт и TF-IDF, берт + TF-IDF + N-grams (все комбинации). Нужно еще проверить реализацию OKAPI 25 -стандартный алгоритм, реализация расписана. Примерный код с замечаниями представлю по запросу, но как отправную точку. Написать лучше с нуля.</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>5500 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>18.08.2022</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>6 месяцев</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Требуется доработать форму шаблона</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>Требуется доработать форму шаблона запроса на сайте сделать А скажите, пожалуйста, можно добавить, чтобы ещё варианты ответов в вопрос можно было добавлять. А то сейчас можно только сам вопрос, а под ним варианты ответов не добавить.recruitingservice.ru/logi...</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>7000 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>+ 11</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>6 лет и 5 месяцев</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 13:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Получить http запрос с помощью NodeRed и включить gpio контакт</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>На raspberry pi крутится стороннее программное обеспечение системы видеонаблюдения, которое умеет отдавать http запросы.  Хотим получать с помощью NodeRed получать эти http запросы и замыкать gpio контакт. Через пару секунд контакт обратно размыкаем</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>1200 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>4 года и 4 месяца</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 13:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Доработка виджета для работы с WhatsApp</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Программист не доделал виджет для работы через неофициальное API с WhatsApp, требуется его доработка, как в части фронта, так и бэк. Фронт написан на react, бэк на node.js.  Используется типовая библиотека для работы с WhatsApp, с точки зрения задания требуется просто ее обернуть в требуемый вид. Исходники есть.</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>30 000 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>25.08.2022</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>9 лет и 8 месяцев</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 13:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Доработка сайта</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Добрый день!  Наша компания ищет  разработчика на yii фреймворке php. Необходимо доработать сайт, ТЗ для ознакомления прикрепляю ниже.  В отклике пишите стоимость часа вашей работы и приблизительные сроки выполнения данных задач.</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>10 месяцев</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 12:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Кэш на сайте огромного размера, поправить</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>Сайт: cashbackhub.ru Сам сайт весит 1.5 Гб Кеш на сайте 30 Гб, не понятно почему такой большой кэш, найти причину и пофиксить, оптимизировать, настроить  Для отсеивания фейков и ботов, ответить в заявке: 4+3=?</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>1 год и 11 месяцев</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 12:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Софт С ++</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>dropmefiles.com/xq6K6 Поменять дизайн и номенклатуру</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>9 месяцев</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 12:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Построить запросы логинки сайта от которого у нас есть логин и пароль в питоне</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Результатом должен быть мини сервак и функция которую, мы можем вызвать на постмане чтобы проверить ваш результат, после этого оплатим вам вашу работу. Сам запрос должен принимать логин и пароль а возвращать token, accountUserId, v5AccountId. Есть существующий парсер на селениум, который выполняет этот функционал, но делает это очень медленно и хочется делать это напрямую через запросы.  main.truckstop.com/ вот сам сайт +если покажите что уже обходили csrf</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>2 месяца</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 12:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Убрать мигание разделов на главной странице</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>На устройствах IOs наблюдается мигание разделов, прикладываю видео, необходимо устранить баг.</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>5 лет и 10 месяцев</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 11:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Программа на Linux</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>Требуется создание простой программы, вводишь данные в программу, она выдаёт заполненные таблицы в файлы ворд</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>4 года и 4 месяца</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 11:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Разработать BIM модель на оконную раму</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Разработать BIM модель на оконную раму</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>меньше месяца</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Бот для Телеграм</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Здравствуйте,нужно сделать бота,который будет отображать поставщиков</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>1200 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>меньше месяца</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Специалист битрикс24</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Сделать распаковку переписки в WhatsApp и телеграмм в карточку клиента в Битрикс24. В мессенджеры клиент приходит с 2 сайтов:  русскоязычного и англоязычного, мессенджеры настроены на разные номера (российский и зарубежный мобильные соответственно)</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>+ 12</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>2 года и 8 месяцев</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Восстановить запись сообщества ВК</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>Добрый день!  Удалил случайно 10 минут назад запись в сообществе. Нужно восстановить через wall.restore (документация ВКонтакте).</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>1200 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>+ 6</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>9 лет и 6 месяцев</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 10:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Развернуть 1С УНФ для удаленной работы менеджеров, (есть старая БД и конфигурация)</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>Здравствуйте,  задача такая:  1. Раньше (в 2018-2020) пользовался 1С УНФ в офисе. Менеджеры сидели в офисе, у всех был установлен 1с УНФ, подключались к БД на главном компьютере.  2.  УНФ была доработана, созданы документы, печатные формы, калькулятор стоимости на базе документа.  Сохранился файл конфигурации и БД.  3. Хочу развернуть 1С УНФ в той старой конфигурации, только теперь мне надо подключить удаленных сотрудников из разных городов (4 чел).   4. Сохранились какие-то номера лицензий, но в целом, я готов приобретать ПО.   Хотел бы выйти на: 1. Понимание, как планируется реализация (ну, условно: Вы ставите УНФ на своем сервере, проверяем работоспособны ли файлы. Если все норм, то покупаем выделенный сервер, ставим туда 1С УНФ и БД. Ставим сотрудникам 1С, подключаем к БД, лежащей на сервере).  2. Понимание стоимости работ 3. Срок работы 4. Порядок оплаты  С уважением, Руслан Ходжаков</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>+ 18</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>11 лет и 5 месяцев</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 10:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Создание темной темы для 1С УНФ 1.6</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Создание темной темы для 1С УНФ 1.6 Перед выполнением задания необходимо определить какие области можно "перекрасить". Кроме тех что есть в обработке с инфостарта infostart.ru/public/99972...</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>10 000 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>24.08.2022</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>5 лет и 2 месяца</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 10:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Реализация бизнес-процесса в Битриксе</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Этот БП нужно реализовать в битрикс на тарифе стандрат.</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>1 год и 7 месяцев</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 09:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>Нужно починить. В личном кабинете заказчика "исчезает" кнопка “опубликовать” (задание).</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>Нужно “починить”. В личном кабинете заказчика, при изменении “масштабирования” размера (отображения) страницы исчезает кнопка “опубликовать” (задание).  Ищем человека с опытом и навыками в:  MySQL jQuery CSS JavaScript HTML Ajax PHP phpMyAdmin</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>+ 6</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>10 лет и 11 месяцев</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 09:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Срочно ищу помощь в написании кода, простой плагин на php</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>Консультация по написанию плагина</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>18.08.2022</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>меньше месяца</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 09:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>IOS Swift создание нового раздела приложения</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>В новом таргете приложения TARGET_UF вывести в таббар раздел События Сейчас события уже выводятся, нужно скопировать в новый раздел вьюху и немного причесать отображение</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>+ 8</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>15 лет и 5 месяцев</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 08:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Требуется специалист по goole таблицам для внесения поправок</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Есть готовые, работающие страницы google таблиц, используем для учёта в вокальной студии. Нужно внести поправки. Опишу вкратце, если берётесь – напишу по пунктикам более детально. В общем, нужно настроить фильтры (либо есть и работают коряво, либо создать нужные); внести новый прайс; грамотно настроить таблицы сводных данных и ещё кое-какие несложные мелочи для интеграции таблиц между собой</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>21.08.2022</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>4 года и 10 месяцев</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 08:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>в конфиге зашифрована строка подключения к БД, которую нужно восстановить</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>программист ASP.NET или .NET core для восстановления файла конфигурации app.config  в конфиге зашифрована строка подключения к БД, которую нужно восстановить</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>меньше месяца</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 07:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Разработать Frontend для веб-приложения на React или Angular</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Привет!  Мы молодая IT-компания ищем frontend-разработчика, который поможет нам сделать классное веб-приложение. В команде вы будете единственным frontend-разработчиком, поэтому ваш любимый freelance останемся фрилансом :-)  Приложение простое, но очень нужное – система управления рекламой. Состоит из окон: - авторизация; - список рекламных кампаний; - редактирование рекламной кампании (2 окна внутри); - список чатов; - редактирование настроек чата; - управление приветствиями; - управление пользователями.  Особенности: - минимум вёрстки, можно взять bootstrap и тому подобное: по дизайну есть только wireframe, в котором мы определили какие элементы управления и где должны стоять; - wireframe ещё в работе, зато бекенд идёт "на обгон" и ждать API не придётся; - технологии на ваше усмотрение: Angular или React + Redux; - мы заинтересованы в долгосрочном сотрудничестве как с вами, так и с нашим клиентом, поэтому будем рады, если вы готовы на первых этапах к ревью кода (да и любому профессионалу ревью помогает двигаться дальше); - оплата у нас почасовая с оценкой по макету (wireframe'y) от вас (обсуждаемо); - весь проект мы размываем на три месяца (пожелание клиента), поэтому в нашей работе тоже будут паузы, но это обговаривается индивидуально; - модель сотрудничества: ГПХ, безопасная сделка – обсуждаемо.  А вот и ссылка на Figma, где уже есть один Wireframe: www.figma.com/file/HBxuqx...  Пожалуйста, в отклике укажите предварительную (грубую) оценку по макету и стоимость вашего часа, а также приложите ссылку на ваш github (если есть).  Будем рады встретить классных разработчиков!</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>31.10.2022</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>2 года и 1 месяц</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 07:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Создать Ватсап +сайт бот в</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Сделать чат-бот .  Задание распишу в лд, могу показать, после чего обсудим стоимость.</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>меньше месяца</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 07:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Скрипт определения нужного паттерна на свечном графике криптовалютной пары</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Необходимо разработать скрипт, который будет определять, по движению цены и объему торгов, характер нисходящего движения цены (на свечном графике криптовалютных торговых пар).  Подробное ТЗ вышлем в личной переписке.  ✅ Ищем программиста со знанием языков программирования: обязательно php, +какой-либо из языков: Python/node.js/Go.   ✅ Уровень владения языками: middle и выше.   ✅ Обязательно со знанием в области трейдинга (криптовалютного или любого другого), глубокие знания индикаторов, возможно математических моделей, анализа графиков и т.д  ✅ Обязателен опыт работы с торговыми криптовалютными роботами.  ✅ Опыт работы с высоконагруженными системами.   ✅ Желательно (но не обязательно) владение разработкой во фронтенде.  ✅ Наличие не менее 20 рабочих часов/нед. под наш проект.</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>120 000 руб/заказ</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>1 месяц</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 07:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Создать Телеграм бот в конструкторе</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Сделать простой чат-бот без сценариев примерно на 150 строк не на языке программирования, а в конструкторе, где я смогу потом редактировать бота.  Техническое задание готово, могу показать, после чего обсудим стоимость.</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>меньше месяца</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 06:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Прасер цен для Buff163</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>Здравствуйте, нужно сделать Парсер  для сайта Buff163 по сравнению цен между steam, а также между обменником cs.deals/ru/market  Нужно, чтобы парсер сортировал по выгоде в процентном соотношении скины из таких игр, как: csgo,dota2,  rust, tf2 и сравнивал их с ценами в стиме или же между обменником cs.deals и показывал самые выгодные для вывода предметы.   Нужно, чтобы он делал это быстро, часто обновлялся и делал это быстрее за таблицы, чтобы работать быстрее конкурентов.   Пример того, что нужно: imgur.com/a/eoYL71U Кто может с этим справиться – пишите, буду рад с вами поработать.</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>меньше месяца</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 06:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>FL.RU</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Ищу опытного тестировщика сайта</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Работа заключается в тестировании английского интернет-магазина. На протяжении всей разработки нужен опытный тестировщик желательно со знанием английского языка. Отчёт должен быть на английском языке в Гугл документах</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>ожидает предложений</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>по договоренности</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>меньше месяца</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 06:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>REST API налаштування – №1177015</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Доброго дня. 
+Для волонтерського проекту в Україні, потрібно налаштувати REST API по DRM захисту відео від копіювання. 
+Всі деталі розповім в особистому повідомленні або у телефонній розмові.</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr"/>
+      <c r="E104" s="2" t="inlineStr"/>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>+ 6</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>14 лет в сервисе</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 18:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Нужен человек для работы над заказом, задача для php программиста – №1176984</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>Нужны доп. человек для работы над заказом php, если кому интересно напишите вашу ставку в час, и ваше резюме.</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr"/>
+      <c r="E105" s="2" t="inlineStr"/>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>+ 25</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>14 лет в сервисе</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 15:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Отцентрировать контент по центру на лендинге – №1176982</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>Нужно отцентрировать контент по центру на лендинге из 2-х блоков , на первом только текст ,на втором форму.
+Лендинг на голом php
+Работы на 5 минут.
+Оставлю отличный отзыв</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>$1</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>+ 11</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>2 месяца в сервисе</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Создать систему анализ и сравнение текстов на PHP – №1176935</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Создать систему анализ и сравнение текстов на PHP:Текстовое поле, где пользователь вводит первую версию текста.Текстовое поле, где пользователь вводит вторую версию текста.Кнопка “Сравнить”При нажатии кнопку появляется вторая версия текста с изменениями относительно первого текста.Новые предложения должны быть выделены светло-зеленым цветом.Измененные предложения должны быть выделены желтым цветом.Удаленные предложения должны быть выделены красным цветом.При наведении курсора мыши на измененное (желтое) предложение оно должно заменяться на первую версию (при пропадании фокуса с измененного предложения опять видна новая версия).Не использовать готовые php библиотеки для выполнения данного задания.До выполнения задания мы хотим знать:Количество часов, требуемое Вам на выполнение данного задания.Дату, когда задание будет готово.</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr"/>
+      <c r="E107" s="2" t="inlineStr"/>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>2 месяца в сервисе</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 08:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Приложение с Yii2.0 – №1176934</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>1) Поднять на своём пк yii2-advanced: ссылка) Запрограммировать модуль "Задачи", имеющий базовый CRUD функционал: а) Создание задачи б) Просмотр задачи в) Обновление задачи г) Удаление задачи3) Задача должна иметь следующий список полей: а) Название задачи б) Описание задачи в) Статус задачи (создана, в работе, выполнена) г) Приоритет задачи (цифра от 1 до 5) д) Дата создания задачи4) Весь список задач должен быть отображен в виде таблицы5) Реализовать сортировку по приоритету и дате создания задачи5) Над списком задач реализовать простой поиск по названию задачи6) Внешний вид не важен</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr"/>
+      <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>2 месяца в сервисе</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Парсер Амазон – №1176933</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>Сделать параллельный парсер из 5 источников (4 сайтов и одного гугл-расширения). В гугл-расширении необходимо парсить переменные +
+скачать таблицу и произвести в ней простые математические операции (вычитание,
+сортировка). Парсер будет загружать ссылки для сбора данных из текстового
+файла.
+1. С первого источника спарсить 9 переменных. 1 переменную нужно преобразовать по шаблону.
+2. Со второго источника спарсить 1 переменную, преобразовать её по шаблону, затем открывать сайт, исходя из этой переменной и
+парсить с него 2 переменные. В зависимости от второй переменной, открыть на
+этом же источнике по ссылкам от 0 до 3 страниц и спарсить из каждой из этих
+страниц по 1 переменной по шаблону.
+3. С третьего источника спарсить 2 переменных, открыть второй сайт, вставить эти переменные в 2 окна на сайте, нажать кнопку и
+спарсить выдачу.
+4. В четвёртом источнике открыть сайт, авторизоваться, вставить преобразованную ссылку из текстового файла, нажать
+кнопку на сайте, спарсить выдачу.
+5. В пятом источнике открыть сайт по ссылке из текстового файла, с расширения гугл-хром спарсить 15 переменных. Затем скачать csv или xlsx таблицу. Произвести в этой таблице простые математические операции (вычитание,
+сортировка), спарсить 7 переменных. 
+Всего будет 26 переменных.
+Логины, пароли, ссылки на сайты я предоставлю в текстовом файле на гугл-диске по запросу. Чтобы открыть вам доступ к гугл-диску мне нужна
+ваша гугл-почта. 
+Также на гугл диске будет запись видео с экрана компьютера, детально рассказывающее и показывающее ТЗ.
+Пожалуйста, скачайте ТЗ на парсер Амазон, в этом файле есть связь со мной.</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>$165</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr"/>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>7 лет в сервисе</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 07:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Перенос api с одного сайта на другой и правки – №1176908</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
           <t>Доброго времени суток!
-Ищу специалиста, который поможет подключиться и настроить API ссылка к нашему сервису податьвсуд.онлайн, а также настроить парсер данных в целях определения подсудности.
-Если вкратце: наш сервис позволяет формировать документы для подачи в суд. Есть официальный (гос сайт) ссылка у которого есть API. Через него нужно получить возможность определять подсудность (подавать адрес и он должен показывать название и номер суда по этому адресу).
-Нужно помощь специалиста, который поможет в этом. Достойную оплату гарантирую.</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>+ 191</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr">
+Два задания в одном для сайта ссылка
+Это сайт агрегатор для агентств и перевозчиков, зарабатывает комиссию на продаже автобусных билетов.
+На этом сайте регистрируются агентства для продажи билетов своим клиентам.
+И добавлены автобусные маршруты разных перевозчиков.
+1 задание. В админ панели сайта ссылка есть таблица с забронированными билетами (см. скрин список заказов). В эту таблицу нужно добавить НАЗВАНИЕ АГЕНТА из списка агентств (см. скрин список агентств), чтоб было понятно, какое агентство забронировало билет.
+2 задание. На странице сайта ссылка реализовано api с сайта ссылка
+То есть все бронирования билетов отсюда ссылка переносятся в базу нашего аккаунта на ссылка.
+Необходимо перенести это же api на этот сайт ссылка
+То есть сделать такую же форму с таким же функционалом как на ссылка
+Каждое агентство входит под свои логином и паролем и сразу попадает на страницу бронирования (скрины прикрепляю).
+На этой же странице нужно разместить форму бронирования (api) с сайта Одри - копию с ссылка
+------------------------
+Вход в админ панель на этой странице ссылка
+Бронирование агентами (форма с api) должно быть на этой странице ссылка
+Ссылка на папку с файлами сайта ссылка выложена на Гугл диск, чтоб было понятно, как этот сайт работает: ссылка
+Если что-то непонятно, объясню.</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr"/>
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>+ 31</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
         <is>
           <t>- 0</t>
         </is>
       </c>
-      <c r="H69" s="2" t="inlineStr">
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>9 лет в сервисе</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Немного изменить сайт – №1176910</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>Сайт ( wordpress) для фотографа нужно сделать работающей страницу букинга ( не приходят клиентские имейлы )
+и изменить цвет одного текста ;)</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr"/>
+      <c r="E111" s="2" t="inlineStr"/>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>2 месяца в сервисе</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Парсинг фото – №1176859</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>Есть работающий скрипт парсинга фото. Нужно доработать добавив новые сайты для парсинга.</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr"/>
+      <c r="E112" s="2" t="inlineStr"/>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>3 года в сервисе</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 18:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Оперативно внести правки в текущий проект на ларавель – №1176753</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Тз по ссылке, работа по бэкенду, для фронтенда, есть человек если необходимо.ссылка
+жду предложений
+ссылку на код и развернутый вариант проекта есть</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr"/>
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>4 дня в сервисе</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 15:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Вставить код-виджет от Profitbase на одностраничный сайт WordPress – №1176856</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>Разместили код-виджет на сайте для отображение кнопки. Сначала все работала, но через время перестало. 
+Сайт: ссылка</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>$7</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>1 день в сервисе</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 15:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Новый раздел на сайте – №1176851</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>На сайте-самописе (PHP 7.1 + MySQL) автомобильных объявлений нужно разработать новый раздел (11 типов страниц). Данные каталога и фото к ним уже есть внутри админки.
+Верстка так же нужна. Есть макеты в Axure + многие блоки имеются на текущем сайте, поэтому все стили можно смотреть там.
+Работаем через Git.
+Формат работы: Оценка ТЗ &gt; Согласование &gt; Выполнение &gt; Тестирование &gt; Оплата.
+ТЗ предоставлю. От вас цена и сроки.
+Оплата только Юмани.
+Антибот: 37+26=?</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>$700</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr"/>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>+ 103</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
         <is>
           <t>12 лет в сервисе</t>
         </is>
       </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>09.08.2022 04:45</t>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 14:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Написать модуль синхронизации на laravel – №1176849</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>Добрый день коллеги! 
+Нужно написать модуль синхронизации на laravel между Gitlab и activecollab (тикетница)
+Есть доступная документация по api
+docs.gitlab.com/ee/api
+docs.gitlab.com/ee/api/issues.html
+developers.activecollab.com/api-documentation/index.html
+Ваша задача - реализовать такой функционал модуля:
+1. Синхронизация задач, при добавлении и редактировании задачи
+2. Проверить возможность создавать задачу указав конкретный ID, чтобы id задачи в гитлаб сходился с activecollab и наоборот
+3. Синхронизация комментариев
+4. Синхронизация вложений к задаче
+5. Синхронизация лейблов
+6. Передача пользователей при синхронизации задач, комментариев и т.д.. 
+скорее всего просто сделаем в скрипте массив зависимости ID 
+пользователей в гитлаб и activecollab
+В итоге мы должны получить рабочие url ссылки которые повесим на вебхуки. После чего задание можно считать закрытым
+Жду от вас примерные сроки и цену. В первую очередь ищем кто имел опыт работы с подобными заданиями</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr"/>
+      <c r="E116" s="2" t="inlineStr"/>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>+ 8</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>10 лет в сервисе</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Скрипт не выводит русские буквы Word Press – №1176842</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>Задача - руссифицировать вывод скрипта Word Press. 
+Имеется: калькулятор стоимости ремонта (первое прикрепленное изображение)
+В рамочке выводится рассчитанная стоимость, но только на английском. При смене слов на русские получается вот такая история (второе изображение).
+Калькулятор создан на базе плагина Cost Calculator (третье изображение).</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>$10</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr"/>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>1 день в сервисе</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 14:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Требуется backend разработка – №1176819</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>Есть несколько задач по опенкарту и wp, большим плюсом будет опыт в разработке бэкенда с нуля, без cms.
+Требуется отличное знание: PHP, Opencart, Wordpress.
+Просьба в заявках указывать стоимость часа работы.</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr"/>
+      <c r="E118" s="2" t="inlineStr"/>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>1 день в сервисе</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 11:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Доработка проекта на Angular js – №1176809</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>Задачаразработка и доработка имеющихся веб-приложения на Angular Js (1.3)
+Детальное ТЗ к проекту имеется, написано все чётко и ясно
+Уже есть готовая структура и первые блоки. Также полностью готов backend на PHP
+При отклике просим высылать примеры работ и ставку за час - ВАЖНО</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>$12</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr"/>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>2 месяца в сервисе</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Telegram bot, который присылает дайджест о предстоящих датах – №1176805</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>Интересует разработка небольшого телеграм-бота.ссылка</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr"/>
+      <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>2 дня в сервисе</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 09:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Настроить pipeline запуска автотестов в GitHub Actions – №1176803</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>Есть репозиторий в гитхабе с автотестами api. Автотесты на python/pytest. Для периодически прогона подключен github actions. В приложенном файле шаги workflow с автоматическим запуском этих тестов и отправкой письма на почту. Что нужно доработать:
+1) Логи автотестов записывать в файл с логами (можно один файл на все тесты)
+2) Отправлять письмо хотя бы при одном упавшем тесте (сейчас при условии if failure() оно отправляется только если падает джоба целиком) с приложенным в письме файлом с логами. Будет здорово, если в файле будут только логи упавших тестов, но это необязательное условие.</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr"/>
+      <c r="E121" s="2" t="inlineStr"/>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>8 месяцев в сервисе</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 09:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Написать небольшую CRM – №1176801</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>Необходима небольшая самописная система управления клиентами. Доступ только у одного сотрудника. Фреймворк на Ваш выбор, предпочтительно - Django.  
+Дизайн и верстка в разработке.
+Основной функционал:
+1. Добавление, удаление, редактирование услуг (без изображений).
+2. Добавление, удаление, редактирование клиентов, вывод списка клиентов.
+3. Хранение в карточке клиента информации об услугах, которые он заказывал, с привязкой по датам
+4. Формирование для каждой услуги договора и акта приема передачи (шаблон один на все). Шаблон содержит: ФИО с персональными данными клиента, список услуг с ценами (таблица), номер договора формируется автоматически. 
+Требуется ориентировочная стоимость разработки, срок - порядка одного - двух месяцев.</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr"/>
+      <c r="E122" s="2" t="inlineStr"/>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>+ 36</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>8 лет в сервисе</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 08:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Запись кода в базу данных и вывод на страницу – №1176642</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>Как нужно реализовать, вот сам сайт ссылка, где текст "tyt kluch" нужно чтобы появлялась сам ключ, который будет формироваться. Как нужно сделать формирование ключа, у меня есть база данных где хранятся ключи, формирование идет через панель, но так-как я не хочу постоянно создавать ключи, и хочу автоматизировать, предлагаю сделать таким образом, после оплаты клиента соответственно отправляется сам товар через result.php, надо этот result.php сделать следующие, если клиент оплатил на месяц то идет запрос в базу данных где хранятся ключи на формирование ключа на месяц, сам ключ можно формировать рандомный md5 или любой другой (то есть достаточно отправить запрос в базу данных на создание новой строки с ключом), далее этот сформирований ключ передается в основную базу данных и вводиться на страницу выше.</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>$17</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr"/>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>+ 3</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>1 год в сервисе</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 01:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>WEBLANCER</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Потрібен — Telegram bot – №1176789</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>Добрий день 
+Потрібен — Telegram bot : 
+База даних телефонних контактів з коментарями , котрі можуть залишати користувачі
+Крок перший користувач читає це !
+✌Чи задумувався що можеш знати людину ще до знайомства з нею ?
+За компанію , магазин чи ресторан , бар , кафе або ж що люди насправді про них думають?
+Купляти свіжі якісні продукти , отримувати кращий сервіс .
+І найважливіше дізнатись про неякісні продукти , наглий та непрофесійний сервіс , а в теперішній час вберегтися від шахрайства.
+Натисни /start слідуй інструкціям та дізнася багато нового та цікавого що зможе допомагати тобі щодня!
+« Вся інформація тут має виключно інформаційно-довідковий характер .
+Кожна людина має право на вільне вираження свого погляду; це право включає свободу шукати, одержувати і поширювати будь-яку інформацію ! »
+Текст використовувати той що тут написано , можна навіть скопіювати !
+/start
+Функція
+Поділитись своїм контактом
+«Так він авторизовує свій номер та ім’я в базі даних і прив’язує до нього номер телефону , якщо це все єпотрібно тому-що , може бути так що телеграм зразу авторизує через ід користувача , тоді для цього непотрібно буде цієї функції!»
+Введіть назву компанії —- Імя роботодавця , контактні дані інтернет продавця чи людини яка надавала послуги !
+Або «Пропустити»
+Надішли посилання на сайт або Facebook , Instagram , Telegram , Viber , What’s up.
+Або « Пропустити»
+Обов’язковим критерієм який потрібно заповнити номер телефону у міжнародному форматі +380 або +480.
+Та відправити повідомлення з геолокацією продавця або людини яка надавала послуги!
+Далі алгоритм шукає збіги і видає їх у повідомленні , 
+Три допустимі помилки у Імені
+Три у Посиланні 
+І жодного у Номері телефону 
+Якщо жодного подібного результату не було , тоді створюється контакт по якому інший користувач який здійснює пошук по класах , може його знайти по критеріях «Ім’я , Номер . Посилання»
+Можна відправляти повідомлення типу «текст» або «фото».
+Тоді повідомлення написане користувачем або добавлене фото , зберігається в історії цього контактна .
+Інший користувач який напише ідентифікуючі дані (контактів) які є в класах може тоді цей користувач побаче всю історію коментарів від інших користувачів .
+Також лічильник з двома кнопками під кожним створеним контактом.
+Сам лічильник це перше прикріплене повідомлення з опитуванням !
+✅ ❌ (види кнопок)
+Один користувач тільки одну позицію обирає «догори чи вниз»</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr"/>
+      <c r="E124" s="2" t="inlineStr"/>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>2 дня в сервисе</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Разработать аудиоплеер html5 под аудиокниги</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>Доброго времени суток. Необходимо сделать аудиоплеер для проигрывания аудиокниг. В моём случае необходим html5 аудиоплеер с плейлистом (содержанием аудиокниги) для того, чтобы заменить плеер от PlayerJs. Главной задачей является функционал который показан на скриншотах, а так же запоминание времени воспроизведения и главы (трека) на котором пользователь прекратил прослушивание. Дизайн должен быть адаптивным как для десктопов, так и для телефона, для телефонной версии плеера приоритет будет высоким, так как основная посещаемость идёт с телефонов. Здорово, если можно было бы сделать процент прослушивания всей аудиокниги (приложил скриншот).Вторая часть разработки это непосредственно формирование плейлиста посредством php скрипта, который будет собирать метаданные с файлов mp3 а так же пути до файлов и выводить это всё в json формате. Есть простенький скрипт, который нужно немного доработать.Бюджет могу увеличить, в зависимости от сроков работы и качества. Ссылки на референс, который можно взять за основу скину.</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>15 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr"/>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>10 месяцев назад</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 18:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>C# WPF приложение для ввода данных</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Требуется написание приложения WPF на языке C#.Приложение содержит DataGrid'ы, размещенные в нескольких TabControl'ах. Данные из таблиц сохраняются в SQLite. Необходимо реализовать валидацию данных и всплывающие подсказки.Обязательным условием является схожесть (и внешне, и по навигации) таблиц приложения с MS Excel.Огромным преимуществом для исполнителя будет создание динамического содержимого - формирования панелей и заголовков таблиц исходя из БД или иного источника, вполне приемлемо и написание классов/редактирование XAML заказчиком по инструкции.Более подробно - в ТЗ.</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>5 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr"/>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>сегодня</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 18:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Подправить верстку</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>Необходимо оперативно подправить верстку данного проекта: https://savemusic.ru/Некоторые недочеты мы обнаружили, но вашему опытному взгляду тоже необходимо будет пробежаться по проекту.Проект в фигме имеется, приступить нужно уже сегодня.</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>3 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr"/>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>+ 2</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>более 5 лет назад</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 14:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Скрипт для скрапинга alza.cz</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>alza.cz - чешский маркетплейс, при переходах по глубоким ссылкам часто показывает recaptcha v2. Требуется написать скрипт на любом языке программирования (в порядке приоритета Node.js, Python, C#), который будет принимать из командной строки два параметра: --url - ссылку на страницу, которую нужно скачать--out - имя файла, куда сохранить контент страницы после решения капчиСкрипт должен устанавливать код возврата 0, если успешно решил капчу и отрицательное число, если решить не удалось. В случае, если ошибок может быть несколько - требуется возвращать разные коды ошибок и описать, что они значатДля решения капчи можно использовать сервисы вроде https://anti-captcha.com/На время разработки исполнительно должен использовать собственный аккаунт (там достаточно закинуть 1$ для тестов)Результатом работы является рабочий скрипт или исходный код для компилируемого языка</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>5 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr"/>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>сегодня</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Допилить интернет-магазина October CMS</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>Всем привет. Есть готовая верстка интернет-магазина, которая уже натянута на движок October CMS (php, laravel). Также я подключил плагины Shopaholic, Orders for Shopaholic, ToolBox. Настроил категории товаров, страницу каталога товаров, карточку товара. В общем, вывел всю нужную инфу о товарах из коробки на соответствующие страницы.Сейчас мне необходима помощь в настройке страниц корзины и оформления заказа (они объединены) и помощь в настройке самого процесса добавления товара в корзину. Т.е. надо реализовать возможность добавлять товар в корзину при нажатии на соответствующую кнопку.Также необходимо добавить и вывести на страницу оформления заказа два способа оплаты товара. Первый способ: оплата после консультации со специалистом, второй способ: оплата онлайн на сайте. В первом случае - вся инфа из формы на странице при отправке улетает просто на почту. Во-втором - оплата посредством интернет-эквайринга от Модульбанка. В личном кабинете Модульбанка уже все настроено. Необходимо только настроить после клика по кнопке "оформить заказ" появление виджета оплаты.Не даю никаких предоплат, работать буду только через безопасную сделку</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>10 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr"/>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>2 дня назад</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Парсер Амазон</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>Сделать параллельный парсер из 5 источников (4 сайтов и одного гугл-расширения). В гугл-расширении необходимо парсить переменные + скачать таблицу и произвести в ней простые математические операции (вычитание, сортировка). Парсер будет загружать ссылки для сбора данных из текстового файла.  1.С первого источника спарсить 9 переменных. 1 переменную нужно преобразовать по шаблону.  2.Со второго источника спарсить 1 переменную, преобразовать её по шаблону, затем открывать сайт, исходя из этой переменной и парсить с него 2 переменные. В зависимости от второй переменной, открыть на этом же источнике по ссылкам от 0 до 3 страниц и спарсить из каждой из этих страниц по 1 переменной по шаблону.  3.С третьего источника спарсить 2 переменных, открыть второй сайт, вставить эти переменные в 2 окна на сайте, нажать кнопку и спарсить выдачу.  4.В четвёртом источнике открыть сайт, авторизоваться, вставить преобразованную ссылку из текстового файла, нажать кнопку на сайте, спарсить выдачу.  5.В пятом источнике открыть сайт по ссылке из текстового файла, с расширения гугл-хром спарсить 15 переменных. Затем скачать csv или xlsx таблицу. Произвести в этой таблице простые математические операции (вычитание, сортировка), спарсить 7 переменных.   Всего будет 26 переменных.  Логины, пароли, ссылки на сайты я предоставлю в текстовом файле на гугл-диске по запросу. Чтобы открыть вам доступ к гугл-диску мне нужна ваша гугл-почта.   Также на гугл диске будет запись видео с экрана компьютера, детально рассказывающее и показывающее ТЗ.Пожалуйста, скачать прикреплённый файл-ТЗ, в нём есть связь со мной.</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>10 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr"/>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>1 год назад</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 07:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Разработать Seo сайт на WordPress (дизайн макеты есть)</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>Сайт будет на amegaland.ru.Кликабельный по разделам макетhttps://www.figma.com/proto/A2YgSCP2bhVmy9cCfKrhNe/AMEGA?page-id=301%3A6865&amp;node-id=301%3A7126&amp;viewport=231%2C562%2C0.03&amp;scaling=min-zoom&amp;starting-point-node-id=301%3A7126Мобилка в отдельной вкладке https://www.figma.com/file/A2YgSCP2bhVmy9cCfKrhNe/AMEGA?node-id=1050:9250Описание дизайна https://docs.google.com/document/d/113tfQx9ndGMXT3-X-oNOXi7CmAXTheycQw-EYuvAGuI/edit?usp=sharingГлавное - не элементор! (или подобный "конструктор на Вордпрессе", они в будущем не поддаются внутренней оптимизации).Срок - крайне важно уложиться в неделю. Если есть возможность - и раньше.</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>25 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr"/>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>более 5 лет назад</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 01:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Разобраться в API Timing App и сделать выгрузку по приложениям — Python / Pandas</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>Привет.
+Есть такое приложение для трекания своей активности за компом — https://timingapp.com
+У него есть АПИ — https://web.timingapp.com/docs/
+Будет плюсом, если вы уже пользовались приложением сами.
+jupyter notebook:
+На вход подается день — "2022-08-01"
+На выходе — несколько пандас-датафреймов:
+* Общий
+* И по проектам
+(см картинки)</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>4 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr"/>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>более 5 лет назад</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2022 00:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Минимизация задержки при получении сообщения из телеграм канала</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>Кратко: Минимизировать задержку между моментом публикации новости в телеграм канале и получением этой новости на сервере. Между моментом публикации новости в телеграм канале и получением уведомления о этой новости, при использовании pyrogram, есть значительная задержка (от 150 мс до 1-2 секунд). Вероятно она вызвана преоретизацией на стороне серверов telegram по последнему активному чату и клиенту. Свою роль в задержке может также играть дешифровка сообщений на стороне клиента. Нужно, на сколько это возможно, минимизировать эту задержку для фиксированного набора телеграмм каналов.</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>15 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr"/>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>1 год назад</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Разработать блоговый шаблон wordpress на основе шаблона underscores</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>Задача: разработать шаблон (с использованием underscores), который будет максимально идентично похож на сайт wylsa.com.CMS: https://ru.wordpress.orgUnderscores: https://underscores.me/По вопросам - пишите!</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>5 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr"/>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>1 день назад</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Необходимо на основе текущего сайта сделать копию</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>Задача из 2х этапов:Этап1:Исходный сайт на laravel - 1001guide.netНужно скопировать бэкенд и настроить все на новом домене и дизайне.Готовая верстка будет предоставлена.Этап2:Некоторые небольшие доработки и изменения с доплатой по почасовке.Просьба в отклике прислать ссылки на ваши наиболее интересные проекты. Оценить примерно стоимость этапа1.И почасовую ставку для этапа2.</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>30 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr"/>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>2 месяца назад</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 18:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Второе нативное меню для приложения</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>Требуется создать второе меню для приложения, которое будет показано на страницах согласно списку.</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>7 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr"/>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>+ 6</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>2 года назад</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>Верстка сайта из Figma с блоком кручения модели</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>Добрый день! Нужно сверстать сайт + добавить возможность кручение модели и изменнение ее шмоток прямо на сайте пример окна с кручением - https://project-hive.io/#nft-itemsСайт имеет адаптивные версии - Мак - планшет - телефонСам сайт прикреплю фото. По бюджету - обсуждаем. Если вы все это прочитали напишите в отклике первое слово "Ознакомился"</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>50 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr"/>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>1 год назад</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Разработать WebRTC Python+React</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>Необходимо разработать систему WebRTC для создания конференций между 2 пользователями.Вход в конференцию осуществляется либо по ссылки либо по идентификатору который нужно ввести при открытии главной страницы Комнату с конференцией создается автоматически на стороне сервера. Желательно для этого сделать API (/create_room). Этот метод будет вызываться скриптом по расписанию. Передаваемый параметр: email пользователя которого нужно пригласить в конференцию. После создания необходимо реализовать события, я отдельно реализую слушателей этих событий. В событие передавать ID комнаты и email пользователя На стороне сервера нужно реализовать метод который будет слушать входящий голосовой поток от подключившегося пользователя (метод оставить пустым. Я там допилю распознавание текста и логику работы)Так же реализовать метод для отправки голосового потока (tts). Я этот метод буду использовать после распознавания текста для отправки ответа голосового ответа (если это необходимо)При подключении пользователя в комнату должна отображаться кнопка "начать интервью" которая отображается посередине экрана. После нажатия этой кнопки боту поступает голосовой поток пользователя Так же необходимо проверять включен ли микрофон у пользователя. Если не включен нужно уведомление о том чтобы он его включил. После чего можно отображать выше описанную кнопку Получение картинки с вебкамеры не нужно</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>20 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr"/>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>+ 3</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>7 месяцев назад</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>Разработать UX страницы игры - сбор NFT-картинки из частей</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>Страница - это игра для одного пользователя, напрвлаенная на:
+1. Сбор пользователем картинки-мозайки из кусочков
+2. Кусок пользователь получает только за выполнение задания
+3. После того, как картинка собрана, она минтится в NFT и помещается в кошелек пользователя
+пример изображения картины во вложнии
+В начале игры все части заблюрены/пикселизованы/каким-то образом закрыты от пользователя.
+Также пользователь видит задания.
+- залогинься телегой поздоровайся с нашим ботом
+- залогинься метамаском
+- зайди на наш дискорд сервер
+- зафолови на твиторе
+- ретвитни прикреплённый пост
+- fb vk baidu и т.п.
+За каждое выполненное задание он получает сундучок
+сундук раскрывается с анимацией и из него вылетают кусочки мозайки
+При выполнении задания пользователь получает на этой странице нужные ему кнопки чтобы подписаться, ретвитнуть и т.д.
+Пользователь должен понимать какие задания он выполнил и что он за это получил.
+В конце, когда все куски собраны, он должен иметь возможность заминтить картинку - Кнопка
++ на странице есть история транзакций.</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>5 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr"/>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>4 месяца назад</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 11:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>Разработка сайта на laravel</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>Нужно создать под ключ интернет магазина. Сайт должен быть простым и интуитивно понятным  (примеры https://skiny.kz/ https://wikkeo.com/)  . Не интересуют шаблонные решения с лишним кодом. Сайт должен быть самописным. Должна быть своя админка где можно добавить и удалить товары , где можно так же добавить категории и так же удалить их. Чтобы мы смогли добавить баннер на главной странице и удалить ее при нужде. Чтобы логотип магазина так же могли убрать и добавить. Магазин должен быть максимально простым. На главной странице должен быть логотип, поиск ( умный поиск) , далее категории товара их 5-6 на данный момент но их будем добавлять сами. Далее новинки и далее распродажи и все. Простой и понятный. Подключения к платежным системам не нужно. Но в карточке товара нужно будет сделать чтобы человек мог оплатить переводом Сбербанк либо Тинькоф ( примеры скинем) ( так же нужно будет сделать в админке возможность оптимизировать сайт карточки товаров сео тайтл дискрипшен и т.д.)</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>100 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr"/>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>+ 0</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>1 день назад</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 08:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Интегрировать JavaScript в Swift</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Есть исходный код фоторедактора на JS. Необходимо написать приложение под iOS с основными функциями этого фоторедактораОставляйте в отклике телегу, скину исходники фоторедактора на оценку</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>50 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr"/>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>4 года назад</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 00:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>FREELANCE.HABR</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Интегрировать JavaScript во Flutter</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>Есть исходный код фоторедактора на JS. Необходимо написать приложение под iOS с основными функциями этого фоторедактораОставляйте в отклике телегу, скину исходники фоторедактора на оценку</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>50 000 руб. за проект</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr"/>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>+ 1</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t>- 0</t>
+        </is>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>4 года назад</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2022 00:48</t>
         </is>
       </c>
     </row>
